--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_4/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_4/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.348</v>
+        <v>-0.145</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.465</v>
+        <v>27.394</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.437</v>
+        <v>-0.322</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.114</v>
+        <v>32.339</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.584</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.07</v>
+        <v>26.992</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6.922741203380369</v>
+        <v>25.14535665107715</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>19.90092730099262</v>
+        <v>25.14535668678</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>26.01100678103852</v>
+        <v>25.14535669883502</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.764868288725133</v>
+        <v>25.14535665247513</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>19.0129340099877</v>
+        <v>25.145356691261</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>25.3149656139958</v>
+        <v>25.14535670423757</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.442581294689971</v>
+        <v>25.14535665959763</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>25.08044533761268</v>
+        <v>25.14535669889976</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>31.29472389030967</v>
+        <v>25.14535671085774</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>25.55403331436182</v>
+        <v>25.14535671023412</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>31.63989636569385</v>
+        <v>25.14535672579044</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>36.33989995620264</v>
+        <v>25.14535673041913</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>10.81663146373442</v>
+        <v>25.14535667938161</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>25.66577590443338</v>
+        <v>25.14535671839791</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>33.11751538400546</v>
+        <v>25.14535672988219</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>11.10105148356399</v>
+        <v>25.14535670861315</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28.1016732498521</v>
+        <v>25.14535674963011</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>35.63847046483113</v>
+        <v>25.14535676409418</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4.59707646946795</v>
+        <v>25.14535670599225</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>22.90971022975434</v>
+        <v>25.14535674932488</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>31.63050440653385</v>
+        <v>25.14535676553592</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10.47539175985602</v>
+        <v>25.14535671781054</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>31.26977204655149</v>
+        <v>25.14535676238017</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>39.26565531830066</v>
+        <v>25.14535677700056</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>32.0405164833921</v>
+        <v>25.14535677031554</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>41.75958256779188</v>
+        <v>25.14535679007842</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>47.86691295845117</v>
+        <v>25.14535679551602</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>14.88172026534516</v>
+        <v>25.1453567343476</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>36.19471432862462</v>
+        <v>25.14535678055692</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>44.48008920795363</v>
+        <v>25.14535679374697</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>15.37356368943616</v>
+        <v>25.14535674684258</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>33.87266441361662</v>
+        <v>25.14535678836722</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>42.05850906942114</v>
+        <v>25.14535680253543</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>9.910135577954577</v>
+        <v>25.14535674486933</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>30.48583459918552</v>
+        <v>25.14535678888469</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>39.54025717247927</v>
+        <v>25.14535680461143</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>16.93540485234606</v>
+        <v>25.14535675854878</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>39.44097977166697</v>
+        <v>25.14535680366069</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>48.23530840838782</v>
+        <v>25.14535681789861</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>42.35820331909276</v>
+        <v>25.14535681006902</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>52.64109281776123</v>
+        <v>25.1453568290496</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>58.65777254146244</v>
+        <v>25.14535683382385</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>21.96162288904738</v>
+        <v>25.14535677196963</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>44.88302482716048</v>
+        <v>25.14535681817725</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>53.8048329605883</v>
+        <v>25.14535683142386</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>10.66284249320587</v>
+        <v>25.14535665423133</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>25.44475827913616</v>
+        <v>25.14535669013876</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>31.12845890377147</v>
+        <v>25.1453567018265</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>8.476988667041622</v>
+        <v>25.14535665585437</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>25.61468425490753</v>
+        <v>25.14535669500341</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>31.29412682734876</v>
+        <v>25.14535670756566</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>13.69208627530031</v>
+        <v>25.1453566630671</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>32.10239997512901</v>
+        <v>25.14535670253513</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>37.80789282779878</v>
+        <v>25.14535671406386</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>31.72467126714863</v>
+        <v>25.14535671290265</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>38.13676727843679</v>
+        <v>25.14535672807511</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>42.21670948683488</v>
+        <v>25.14535673258603</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>14.58299907991632</v>
+        <v>25.14535668106289</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>31.5146547818357</v>
+        <v>25.14535672064482</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>38.2777361943355</v>
+        <v>25.14535673198426</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>12.99540908060226</v>
+        <v>25.14535670769654</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>31.50966345812071</v>
+        <v>25.14535674875342</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>38.31834678054395</v>
+        <v>25.14535676267738</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>7.024687252134186</v>
+        <v>25.14535670506412</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>26.85272716200171</v>
+        <v>25.1453567486249</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>34.63381327506828</v>
+        <v>25.14535676429022</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>13.73829652111691</v>
+        <v>25.14535671713842</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>35.99850839407114</v>
+        <v>25.14535676173219</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>43.20121628050811</v>
+        <v>25.14535677575299</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>35.97167030044725</v>
+        <v>25.14535676904061</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>45.78390666222617</v>
+        <v>25.14535678815634</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>50.93837181330143</v>
+        <v>25.1453567933836</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>16.78239971698952</v>
+        <v>25.14535673240431</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>39.46798929645868</v>
+        <v>25.14535677893626</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>47.06217470780996</v>
+        <v>25.14535679194897</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>17.68409163312774</v>
+        <v>25.14535674633027</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>37.61695023466725</v>
+        <v>25.14535678804125</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>45.25156522614688</v>
+        <v>25.14535680160042</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>12.43310445271763</v>
+        <v>25.14535674426817</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>34.5155499164507</v>
+        <v>25.14535678865129</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>42.74630139859961</v>
+        <v>25.14535680373968</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>20.55946587819602</v>
+        <v>25.14535675835819</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>44.421365727233</v>
+        <v>25.14535680365216</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>52.58552579423134</v>
+        <v>25.14535681721905</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>46.52981410224126</v>
+        <v>25.14535680929358</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>56.85097093608195</v>
+        <v>25.14535682773964</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>62.1052109512999</v>
+        <v>25.14535683231809</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>24.17035419446266</v>
+        <v>25.14535677039185</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>48.65995137930668</v>
+        <v>25.14535681727812</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>56.85092164138253</v>
+        <v>25.14535683014025</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>10.17884260951254</v>
+        <v>25.14535665296549</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>24.74896515953085</v>
+        <v>25.14535668886696</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>30.31672228597203</v>
+        <v>25.14535670049325</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>7.418194203367431</v>
+        <v>25.1453566543742</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>24.32659143282564</v>
+        <v>25.14535669352919</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.90259440535396</v>
+        <v>25.1453567060081</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>12.75538237967081</v>
+        <v>25.14535666162054</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>30.9628411882124</v>
+        <v>25.14535670109022</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>36.56694765343543</v>
+        <v>25.14535671257259</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>30.74154398122049</v>
+        <v>25.14535671168192</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>37.10616938042147</v>
+        <v>25.14535672681217</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>41.08164698537518</v>
+        <v>25.14535673134754</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>13.74206784843896</v>
+        <v>25.14535667989417</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>30.44551291515786</v>
+        <v>25.14535671946066</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>37.09838575564193</v>
+        <v>25.14535673074652</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>14.21297614541824</v>
+        <v>25.14535670817238</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>32.59169312986485</v>
+        <v>25.14535674930513</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>39.27863701599067</v>
+        <v>25.14535676315227</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>7.851973406044426</v>
+        <v>25.14535670543837</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>27.58099359562856</v>
+        <v>25.1453567491175</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>35.24276574237695</v>
+        <v>25.14535676466833</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>14.73982326692448</v>
+        <v>25.14535671764377</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>36.89347304842396</v>
+        <v>25.14535676233556</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>43.98574394153992</v>
+        <v>25.14535677629091</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>36.9357196681521</v>
+        <v>25.14535676972912</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>46.67787228633993</v>
+        <v>25.14535678882674</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>51.75359571633849</v>
+        <v>25.14535679405271</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>17.7724567906684</v>
+        <v>25.14535673302965</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>40.28377179667622</v>
+        <v>25.14535677960199</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>47.78483613714172</v>
+        <v>25.14535679256203</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>18.57929838661099</v>
+        <v>25.14535674676384</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>38.39822222537902</v>
+        <v>25.14535678853861</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>45.91559875965852</v>
+        <v>25.14535680204169</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>12.92328549462344</v>
+        <v>25.14535674458917</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>34.92584940282875</v>
+        <v>25.14535678908669</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>43.04554293893835</v>
+        <v>25.14535680407594</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>21.17634436761689</v>
+        <v>25.14535675879024</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>44.95107845798876</v>
+        <v>25.14535680417158</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>53.01078561865359</v>
+        <v>25.14535681768831</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>47.14297811914652</v>
+        <v>25.14535680990651</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>57.42664663236215</v>
+        <v>25.14535682833419</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>62.6014948581746</v>
+        <v>25.14535683291377</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>24.78072838533238</v>
+        <v>25.14535677091621</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>49.15101914791946</v>
+        <v>25.14535681785761</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>57.23875333264979</v>
+        <v>25.14535683066742</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>5.90677323540131</v>
+        <v>25.14535664926871</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>18.52407718944245</v>
+        <v>25.14535668441773</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>24.39648831234601</v>
+        <v>25.14535669621356</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>2.686217027304213</v>
+        <v>25.1453566504979</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>17.48782916716406</v>
+        <v>25.14535668869289</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>23.5642224708559</v>
+        <v>25.14535670141794</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>7.220985008407737</v>
+        <v>25.1453566573487</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>23.44371638492947</v>
+        <v>25.14535669606377</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>29.41537868584409</v>
+        <v>25.1453567077506</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>23.89658856448543</v>
+        <v>25.14535670753051</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>29.78271549456662</v>
+        <v>25.14535672281775</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>34.41370633235479</v>
+        <v>25.14535672739103</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>9.80578878137165</v>
+        <v>25.14535667750384</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>24.23463136108041</v>
+        <v>25.14535671587337</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>31.42238787154468</v>
+        <v>25.14535672713929</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>9.649873066948588</v>
+        <v>25.14535670571072</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>26.19280771798745</v>
+        <v>25.14535674606731</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>33.44399467461291</v>
+        <v>25.14535676023795</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>3.007451560036923</v>
+        <v>25.14535670281018</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>20.79979167431932</v>
+        <v>25.14535674545498</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.20626632727422</v>
+        <v>25.14535676135844</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>29.0120633541489</v>
+        <v>25.14535675819739</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>36.70758330716608</v>
+        <v>25.14535677251079</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.73169306485165</v>
+        <v>25.14535676629951</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>39.1977592208277</v>
+        <v>25.14535678570171</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>45.18788305684619</v>
+        <v>25.14535679107037</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>13.22759987931942</v>
+        <v>25.14535673111273</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>33.95009215518061</v>
+        <v>25.14535677654765</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>41.93444385980939</v>
+        <v>25.14535678948404</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>14.60793561486407</v>
+        <v>25.14535674445033</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>32.58887502179153</v>
+        <v>25.1453567852979</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>40.5038396440212</v>
+        <v>25.14535679919356</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>8.864069872009182</v>
+        <v>25.1453567421752</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>28.84326187745389</v>
+        <v>25.14535678549084</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>37.60971971231305</v>
+        <v>25.14535680094843</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>15.80878051116372</v>
+        <v>25.14535675560207</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>37.75179597838505</v>
+        <v>25.14535680001799</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>46.26395720616948</v>
+        <v>25.14535681397565</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>40.64255075592857</v>
+        <v>25.14535680656798</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>50.6262839809167</v>
+        <v>25.14535682521447</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>56.51478956724867</v>
+        <v>25.14535682992807</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>20.91659259277382</v>
+        <v>25.14535676923762</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>43.17665801214523</v>
+        <v>25.14535681468432</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>51.80110804487221</v>
+        <v>25.14535682770751</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>10.31744040776952</v>
+        <v>25.14535665712918</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>23.91447547374795</v>
+        <v>25.14535669280164</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>29.85022940326276</v>
+        <v>25.14535670456112</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>7.509695765655554</v>
+        <v>25.1453566588219</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>23.42870147291517</v>
+        <v>25.14535669762252</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29.5416518039592</v>
+        <v>25.14535671030069</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>12.36400878280286</v>
+        <v>25.14535666605696</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>29.63884622318193</v>
+        <v>25.14535670533767</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>35.67733887559351</v>
+        <v>25.14535671697921</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>29.42069873324602</v>
+        <v>25.14535671577188</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>35.69429449176135</v>
+        <v>25.14535673115072</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>40.23850629891868</v>
+        <v>25.14535673564999</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>14.22392413021523</v>
+        <v>25.14535668494293</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>29.49729506183271</v>
+        <v>25.1453567237371</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>36.75424914043773</v>
+        <v>25.14535673498139</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>15.92125413561769</v>
+        <v>25.14535671519249</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>33.50527562741527</v>
+        <v>25.1453567560975</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>40.64734248855386</v>
+        <v>25.14535677014586</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>9.732462870992254</v>
+        <v>25.14535671286086</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>28.71981636663487</v>
+        <v>25.14535675613941</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>36.99777275027672</v>
+        <v>25.14535677191163</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>37.3271043723672</v>
+        <v>25.14535676932832</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>44.92235292201336</v>
+        <v>25.14535678351772</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>37.39326515641831</v>
+        <v>25.14535677648464</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>47.25908968425953</v>
+        <v>25.1453567959826</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>53.12176443385877</v>
+        <v>25.14535680126571</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>19.85173168625422</v>
+        <v>25.1453567406029</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>41.4834839230991</v>
+        <v>25.14535678647765</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>49.42020063842968</v>
+        <v>25.14535679932307</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>19.36273026352254</v>
+        <v>25.14535675224213</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>38.31317246377974</v>
+        <v>25.14535679356028</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>46.21403119027366</v>
+        <v>25.14535680739679</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>14.05354152880713</v>
+        <v>25.14535675044769</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>35.13671179651551</v>
+        <v>25.14535679429352</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>43.85991550503739</v>
+        <v>25.14535680969568</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>21.37725216274266</v>
+        <v>25.14535676425815</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>44.33807246516974</v>
+        <v>25.14535680917294</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>52.85211139557646</v>
+        <v>25.1453568230745</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>46.63691338665981</v>
+        <v>25.14535681490357</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>57.05029305723114</v>
+        <v>25.14535683365529</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>62.87355584108126</v>
+        <v>25.14535683831398</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>25.96477135818455</v>
+        <v>25.14535677698094</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>49.08939770031498</v>
+        <v>25.14535682280279</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>57.76261756452379</v>
+        <v>25.14535683578976</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>11.28190968104337</v>
+        <v>25.14535666527145</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>25.2704834752975</v>
+        <v>25.14535669830936</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>30.53337566576332</v>
+        <v>25.14535670892552</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>9.362887063528747</v>
+        <v>25.14535666710805</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>25.7055255154395</v>
+        <v>25.14535670319549</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>30.93199223565806</v>
+        <v>25.14535671459073</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>14.13758982810863</v>
+        <v>25.14535667378928</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>31.5210563070613</v>
+        <v>25.14535671013991</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>36.80945129689089</v>
+        <v>25.14535672060659</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>30.62902681772589</v>
+        <v>25.14535671892343</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>36.76356505472691</v>
+        <v>25.14535673283748</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>40.50377560529569</v>
+        <v>25.14535673684312</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>14.752237813236</v>
+        <v>25.14535668955</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>30.35350480482865</v>
+        <v>25.14535672563171</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>36.63526356077317</v>
+        <v>25.1453567358917</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>18.39247603279872</v>
+        <v>25.14535671883982</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>36.14279300971569</v>
+        <v>25.14535675680719</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>42.21504748930637</v>
+        <v>25.14535676932142</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>13.17529487320213</v>
+        <v>25.14535671686194</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>32.39170680905042</v>
+        <v>25.14535675722107</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>39.31105665931465</v>
+        <v>25.1453567712745</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>19.60663397750518</v>
+        <v>25.14535672823087</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>40.868997344379</v>
+        <v>25.14535676949236</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>47.31468017865194</v>
+        <v>25.14535678209761</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>40.1103046842557</v>
+        <v>25.14535677538121</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>49.50805733433651</v>
+        <v>25.14535679291945</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>54.21832874268714</v>
+        <v>25.14535679757193</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>22.17787971947317</v>
+        <v>25.14535674139304</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>43.58611151641568</v>
+        <v>25.14535678417207</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>50.40987499537113</v>
+        <v>25.14535679579475</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>21.72608642144314</v>
+        <v>25.14535675285044</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>17.01343625813993</v>
+        <v>25.14535675123442</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>38.10444763251618</v>
+        <v>25.14535679218181</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>45.46420462769491</v>
+        <v>25.1453568058255</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>24.60231008220653</v>
+        <v>25.14535676435155</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>47.20033559972976</v>
+        <v>25.14535680609701</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>54.55374712314912</v>
+        <v>25.14535681837795</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>48.46061501838878</v>
+        <v>25.1453568105614</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>58.29682521552438</v>
+        <v>25.14535682748807</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>63.08713389267722</v>
+        <v>25.14535683158574</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>27.63874697837682</v>
+        <v>25.14535677466235</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>50.51111992465753</v>
+        <v>25.14535681760109</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>57.97260771348355</v>
+        <v>25.14535682920473</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>4.894856564541886</v>
+        <v>25.14535665045883</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>16.94089405339677</v>
+        <v>25.14535668302299</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>22.32678325145914</v>
+        <v>25.14535669411049</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>1.701525305132765</v>
+        <v>25.14535665136727</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>15.87079538700418</v>
+        <v>25.14535668685473</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>21.33186012486965</v>
+        <v>25.14535669868767</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>6.250839344446987</v>
+        <v>25.14535665764446</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>21.61063424266053</v>
+        <v>25.14535669346123</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>27.04373970428822</v>
+        <v>25.14535670446532</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>22.44020699051969</v>
+        <v>25.14535670446768</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>27.99589847282077</v>
+        <v>25.14535671855259</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>31.970941112125</v>
+        <v>25.14535672286437</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>8.008927813588924</v>
+        <v>25.14535667571308</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>21.91942952120524</v>
+        <v>25.14535671158859</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>28.4141269171387</v>
+        <v>25.14535672217561</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>9.916923806792164</v>
+        <v>25.14535670364474</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>25.78231569560942</v>
+        <v>25.1453567412365</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>32.46820174791632</v>
+        <v>25.14535675446805</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>3.663606439398926</v>
+        <v>25.14535670096524</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>20.74416790610598</v>
+        <v>25.14535674084014</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>28.43427636162451</v>
+        <v>25.14535675561086</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>9.577165174648382</v>
+        <v>25.14535671179218</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>28.89633902492922</v>
+        <v>25.14535675262514</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>35.96876426985287</v>
+        <v>25.14535676599489</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>29.74433116076385</v>
+        <v>25.14535676043493</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>38.58412986036691</v>
+        <v>25.14535677831013</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>43.72595324606827</v>
+        <v>25.14535678329182</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>13.0662616326081</v>
+        <v>25.14535672700805</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>32.93215816454115</v>
+        <v>25.14535676968147</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>40.32667820600306</v>
+        <v>25.14535678185047</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>14.50661990129019</v>
+        <v>25.14535673979536</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>31.84298294637792</v>
+        <v>25.14535677802238</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>39.11727239657474</v>
+        <v>25.14535679089132</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>9.087901236157984</v>
+        <v>25.14535673772973</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>28.39775336179066</v>
+        <v>25.14535677842181</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>36.35052033687175</v>
+        <v>25.14535679260469</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>16.1415945363204</v>
+        <v>25.14535675037646</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>37.11663880841845</v>
+        <v>25.14535679189378</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>44.89557863203362</v>
+        <v>25.14535680479684</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>39.84483446298159</v>
+        <v>25.14535679811034</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>49.22325784893628</v>
+        <v>25.14535681532912</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>54.35371187405352</v>
+        <v>25.14535681968029</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>20.1186331793907</v>
+        <v>25.14535676256798</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>41.73854505437136</v>
+        <v>25.14535680553531</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>49.58543926430029</v>
+        <v>25.14535681755775</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>3.066433546515558</v>
+        <v>25.14535664901813</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>16.26358394209665</v>
+        <v>25.14535668441304</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>22.20989722174094</v>
+        <v>25.14535669622258</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>0.08245930756539366</v>
+        <v>25.14535665035298</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>15.50705931333787</v>
+        <v>25.14535668885161</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>21.62407865324803</v>
+        <v>25.14535670159877</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>4.475331239965879</v>
+        <v>25.14535665715461</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>21.28839138034188</v>
+        <v>25.145356696126</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>27.33976521903663</v>
+        <v>25.14535670782294</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>21.66579484410632</v>
+        <v>25.14535670716262</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>27.83164830403078</v>
+        <v>25.14535672251234</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>32.39350811904008</v>
+        <v>25.14535672706023</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>6.841281417676736</v>
+        <v>25.14535667663928</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>21.81609069037303</v>
+        <v>25.14535671528238</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>29.05069613036165</v>
+        <v>25.14535672657806</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>7.14423964884508</v>
+        <v>25.1453567055847</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>24.25979719936022</v>
+        <v>25.14535674615728</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>31.47227036918697</v>
+        <v>25.14535676031995</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>0.816733287247402</v>
+        <v>25.14535670288948</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>19.22355319589423</v>
+        <v>25.14535674581865</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>27.55514096524062</v>
+        <v>25.14535676172193</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>6.48233770682214</v>
+        <v>25.14535671442137</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>27.34480451196401</v>
+        <v>25.14535675853045</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>35.01440949749549</v>
+        <v>25.14535677284574</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>28.04435783522261</v>
+        <v>25.14535676636087</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>37.77127413132433</v>
+        <v>25.14535678582908</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>43.67524138392567</v>
+        <v>25.14535679119871</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>10.85499739949677</v>
+        <v>25.14535673077571</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>32.09212404945652</v>
+        <v>25.14535677641812</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>40.07667995722389</v>
+        <v>25.14535678940072</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>11.37885587034828</v>
+        <v>25.14535674373876</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>29.91585213656008</v>
+        <v>25.14535678478039</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>37.91110779334769</v>
+        <v>25.1453567987423</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>5.985821991261808</v>
+        <v>25.14535674166838</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>26.55798998486171</v>
+        <v>25.1453567852295</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>35.37002960837397</v>
+        <v>25.14535680077252</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>12.82537246969519</v>
+        <v>25.14535675508592</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>35.3109372715911</v>
+        <v>25.14535679969989</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>43.92417249413298</v>
+        <v>25.14535681373337</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>38.19958114696225</v>
+        <v>25.14535680604403</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>48.49805698991752</v>
+        <v>25.14535682481889</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>54.37473258008595</v>
+        <v>25.14535682954593</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>17.82261388814198</v>
+        <v>25.14535676832829</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>40.62999718296011</v>
+        <v>25.14535681399495</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>49.34504517600661</v>
+        <v>25.14535682712417</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>14.59672496875653</v>
+        <v>25.14535666886711</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>29.28681102172884</v>
+        <v>25.14535670340102</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>34.89157032361095</v>
+        <v>25.14535671468184</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>13.15839365081751</v>
+        <v>25.14535667151414</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>30.4159425932997</v>
+        <v>25.14535670928748</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>35.96633378538291</v>
+        <v>25.14535672132716</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>18.54889038106455</v>
+        <v>25.14535667888067</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>36.81844126433281</v>
+        <v>25.14535671688078</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>42.43332418398274</v>
+        <v>25.14535672799763</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>36.16670513267758</v>
+        <v>25.14535672606375</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>42.57091326543952</v>
+        <v>25.14535674064401</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>46.48909911843759</v>
+        <v>25.14535674488517</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>19.42953791492232</v>
+        <v>25.14535669525386</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>36.12783230510169</v>
+        <v>25.14535673317441</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>42.89402229322704</v>
+        <v>25.14535674409072</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>16.88367067424213</v>
+        <v>25.14535672067947</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>35.28998171572582</v>
+        <v>25.14535676020828</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>41.7327380922597</v>
+        <v>25.1453567735017</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>11.83074077126349</v>
+        <v>25.14535671926176</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>31.81302269839498</v>
+        <v>25.14535676130987</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>39.14185083229012</v>
+        <v>25.14535677619335</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>18.63999877935661</v>
+        <v>25.1453567312942</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>40.7348486806623</v>
+        <v>25.14535677426057</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>47.54752468327918</v>
+        <v>25.14535678763542</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>40.40231712603124</v>
+        <v>25.14535678050632</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>50.10214207975653</v>
+        <v>25.14535679888839</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>55.04503488733196</v>
+        <v>25.14535680379338</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>21.7324718507307</v>
+        <v>25.14535674508002</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>44.17897686821463</v>
+        <v>25.14535678977137</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>51.48941172093039</v>
+        <v>25.14535680215078</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>20.55729685768906</v>
+        <v>25.14535675542588</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>40.26346547662374</v>
+        <v>25.14535679548652</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>47.49567008669735</v>
+        <v>25.1453568084774</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>16.34676210034283</v>
+        <v>25.14535675449043</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>38.38802944867351</v>
+        <v>25.14535679722349</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>46.13413065137708</v>
+        <v>25.14535681159128</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>24.30279335855432</v>
+        <v>25.14535676828844</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>47.8616426075526</v>
+        <v>25.14535681182244</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>55.59538949709518</v>
+        <v>25.14535682480119</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>49.58124371888975</v>
+        <v>25.14535681658385</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>59.79789871984204</v>
+        <v>25.1453568342854</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>64.80159037173782</v>
+        <v>25.14535683860134</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>27.82307554386112</v>
+        <v>25.14535677911806</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>51.93101147901178</v>
+        <v>25.14535682402503</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>59.8399184912485</v>
+        <v>25.1453568363107</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>1.388899016970633</v>
+        <v>25.14535664352961</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>13.06085158085329</v>
+        <v>25.14535667570557</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>18.36096285243698</v>
+        <v>25.14535668659375</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-1.715516806148784</v>
+        <v>25.14535664371239</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>11.79198557569118</v>
+        <v>25.14535667865656</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>17.22839812462496</v>
+        <v>25.14535669038479</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>2.30016752956633</v>
+        <v>25.14535664958482</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>17.15353412235392</v>
+        <v>25.14535668492503</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>22.51911582330376</v>
+        <v>25.14535669574526</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>18.04767303574679</v>
+        <v>25.14535669618356</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>23.3473718224498</v>
+        <v>25.1453567100471</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>27.38748330839268</v>
+        <v>25.14535671439238</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>4.048250242916183</v>
+        <v>25.14535666794708</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>17.60936549208704</v>
+        <v>25.14535670352143</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>23.94038037983052</v>
+        <v>25.14535671396905</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>4.548987665796169</v>
+        <v>25.14535669396454</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>19.67086880367514</v>
+        <v>25.14535673094716</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>26.48720488429538</v>
+        <v>25.14535674411774</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-1.659980260465563</v>
+        <v>25.14535669053058</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>14.37123260084562</v>
+        <v>25.14535672965641</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>22.26101602965517</v>
+        <v>25.14535674444657</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>3.619419520029187</v>
+        <v>25.14535670078947</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>22.03149969735218</v>
+        <v>25.14535674091377</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>29.26876107865281</v>
+        <v>25.14535675425238</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>23.13543678932045</v>
+        <v>25.14535674913619</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>31.57540481398523</v>
+        <v>25.14535676672666</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>36.82632542174146</v>
+        <v>25.1453567718162</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>7.111065416225372</v>
+        <v>25.14535671643264</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>26.09539999704705</v>
+        <v>25.1453567584749</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>33.5745463106341</v>
+        <v>25.14535677067619</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>10.07596135831575</v>
+        <v>25.14535673134156</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>26.64830426813398</v>
+        <v>25.14535676902452</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>34.12777259087425</v>
+        <v>25.14535678180885</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>4.524500677945863</v>
+        <v>25.14535672857286</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>22.78113006367226</v>
+        <v>25.14535676857528</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>31.02426528049759</v>
+        <v>25.1453567827683</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>11.13416464092759</v>
+        <v>25.14535674074039</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>31.1888567126606</v>
+        <v>25.14535678161328</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>39.19609744596826</v>
+        <v>25.14535679446813</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>34.20844669727175</v>
+        <v>25.14535678825805</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>43.14825850688309</v>
+        <v>25.14535680525131</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>48.42464156981211</v>
+        <v>25.14535680966118</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>15.27196618140233</v>
+        <v>25.14535675337642</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>35.99645081839507</v>
+        <v>25.14535679582696</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>43.95771934238181</v>
+        <v>25.14535680780437</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>6.208560120420209</v>
+        <v>25.14535664970082</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>19.81518927539918</v>
+        <v>25.14535668382128</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>25.03841446692378</v>
+        <v>25.14535669481103</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>3.132861279687535</v>
+        <v>25.14535665039431</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>18.85775909403197</v>
+        <v>25.14535668756513</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>24.10309459896223</v>
+        <v>25.14535669940959</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>7.81196477528851</v>
+        <v>25.145356656916</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>24.85285472504058</v>
+        <v>25.14535669442514</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>30.12250505729098</v>
+        <v>25.14535670528354</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>24.69197882663939</v>
+        <v>25.14535670480414</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>30.68803810073938</v>
+        <v>25.1453567191886</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>34.47003466145161</v>
+        <v>25.14535672353177</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>8.836313595940959</v>
+        <v>25.14535667477279</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>24.32586565460803</v>
+        <v>25.14535671228768</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>30.51950441227969</v>
+        <v>25.1453567229657</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>13.49593139772494</v>
+        <v>25.14535670516743</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>30.86979837061658</v>
+        <v>25.14535674437169</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>37.190819626054</v>
+        <v>25.14535675750683</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>7.107624153111708</v>
+        <v>25.14535670201631</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>25.70102638867088</v>
+        <v>25.14535674361835</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>32.95059907328366</v>
+        <v>25.14535675840127</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>13.49185405317851</v>
+        <v>25.14535671344048</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>34.44941001608009</v>
+        <v>25.14535675603636</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>41.16901463133297</v>
+        <v>25.14535676928323</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>34.40679564221458</v>
+        <v>25.14535676329153</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>43.69128310782935</v>
+        <v>25.14535678146536</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>48.50047707336465</v>
+        <v>25.14535678646498</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>16.3070044871685</v>
+        <v>25.14535672840869</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>37.51162475514433</v>
+        <v>25.14535677273559</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>44.53871078975611</v>
+        <v>25.14535678501899</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>17.91764554037347</v>
+        <v>25.14535674295671</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>36.65378999461482</v>
+        <v>25.14535678277062</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>43.80136990644437</v>
+        <v>25.14535679558796</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>11.99691374013297</v>
+        <v>25.14535674028842</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>32.74258917814869</v>
+        <v>25.14535678266838</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>40.47302125561934</v>
+        <v>25.14535679695095</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>19.75785434895743</v>
+        <v>25.14535675367939</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>42.24900965911372</v>
+        <v>25.14535679693114</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>49.92923298459957</v>
+        <v>25.14535680978009</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>44.25254863053851</v>
+        <v>25.1453568025448</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>54.02227899645715</v>
+        <v>25.14535682011526</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>58.9621946116972</v>
+        <v>25.145356824497</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>23.11374922454477</v>
+        <v>25.14535676546407</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>46.0501799508851</v>
+        <v>25.14535681014613</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>53.68564536478938</v>
+        <v>25.14535682231739</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>2.941351967414477</v>
+        <v>25.14535664160182</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>15.2283945529759</v>
+        <v>25.14535667502869</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>20.37737870013515</v>
+        <v>25.14535668612139</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>-0.426192273948395</v>
+        <v>25.14535664196491</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>13.8982167381664</v>
+        <v>25.14535667838225</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>19.07990376308749</v>
+        <v>25.14535669029585</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>4.030231313240858</v>
+        <v>25.14535664808467</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>19.67566896742256</v>
+        <v>25.1453566848518</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>24.87276579468971</v>
+        <v>25.14535669582996</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>20.15394365773652</v>
+        <v>25.14535669629375</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>25.59584120259114</v>
+        <v>25.14535671057228</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.48896873582746</v>
+        <v>25.14535671498658</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>5.436300947757097</v>
+        <v>25.14535666702348</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>19.63308961222508</v>
+        <v>25.14535670389373</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>25.74477590630942</v>
+        <v>25.14535671465804</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>4.459470864726892</v>
+        <v>25.14535669265004</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>20.29785740535156</v>
+        <v>25.14535673099773</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>26.75434913409011</v>
+        <v>25.14535674432248</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-2.332756207556866</v>
+        <v>25.14535668900935</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>14.57933164501158</v>
+        <v>25.14535672968483</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>21.98769438690803</v>
+        <v>25.14535674463543</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>3.394889840558708</v>
+        <v>25.14535669972381</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>22.72221071589139</v>
+        <v>25.1453567413985</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>29.57969319671768</v>
+        <v>25.14535675484928</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>23.52063392011252</v>
+        <v>25.14535674979519</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>32.16132242525379</v>
+        <v>25.14535676783352</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>37.14547094537584</v>
+        <v>25.14535677292929</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>6.769289506154845</v>
+        <v>25.14535671590669</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>26.51021614662393</v>
+        <v>25.14535675945126</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>33.58005233635208</v>
+        <v>25.14535677188332</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>11.39011145902546</v>
+        <v>25.14535673268424</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>28.81204412313483</v>
+        <v>25.14535677179824</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>35.89755382509031</v>
+        <v>25.14535678471225</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>5.186010582158364</v>
+        <v>25.14535672966974</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>24.49727367307181</v>
+        <v>25.14535677129505</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>32.19195211997673</v>
+        <v>25.14535678562224</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>12.47620590772167</v>
+        <v>25.14535674253422</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>33.58782819427221</v>
+        <v>25.14535678504201</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>41.19667338991018</v>
+        <v>25.14535679798473</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>36.25455437900725</v>
+        <v>25.14535679167139</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>45.39796553877274</v>
+        <v>25.14535680908549</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>50.41766643972258</v>
+        <v>25.1453568135222</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>16.2533374158299</v>
+        <v>25.14535675540189</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>37.96026199417409</v>
+        <v>25.14535679944978</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>45.44791780997049</v>
+        <v>25.14535681168408</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>-1.615830478882696</v>
+        <v>25.1453566380244</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>9.668335629683613</v>
+        <v>25.14535666979371</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>14.43258782541811</v>
+        <v>25.14535668028849</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-5.224788187068768</v>
+        <v>25.14535663771034</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>7.86326383327583</v>
+        <v>25.1453566722975</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>12.6711534855582</v>
+        <v>25.14535668360649</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-1.39354114690688</v>
+        <v>25.14535664311003</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>13.0407954427355</v>
+        <v>25.14535667805312</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>17.85059356224172</v>
+        <v>25.14535668843844</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>13.76158750451061</v>
+        <v>25.14535668941822</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>18.82323052886186</v>
+        <v>25.14535670299361</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>22.49044044107873</v>
+        <v>25.14535670718682</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>0.3451174107549022</v>
+        <v>25.1453566619297</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>13.37740386225918</v>
+        <v>25.14535669693974</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>19.07562758772136</v>
+        <v>25.14535670713479</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>1.402205997792024</v>
+        <v>25.14535668762124</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>16.08667419795047</v>
+        <v>25.14535672411067</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>22.11495744537738</v>
+        <v>25.14535673674172</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-5.445400433975504</v>
+        <v>25.1453566835008</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>10.15394906498444</v>
+        <v>25.14535672218731</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>17.08348816525139</v>
+        <v>25.14535673638945</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-0.306503799043135</v>
+        <v>25.14535669334527</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>17.6633179955496</v>
+        <v>25.14535673300356</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>24.06916054231044</v>
+        <v>25.14535674575398</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>18.65368601427265</v>
+        <v>25.14535674144583</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>26.78015378455419</v>
+        <v>25.14535675860606</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>31.48076202780447</v>
+        <v>25.14535676345789</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>3.189652385705394</v>
+        <v>25.14535670943594</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>21.50708649382514</v>
+        <v>25.14535675081515</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>28.13599810829228</v>
+        <v>25.14535676262168</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>8.597034771899466</v>
+        <v>25.14535672716665</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>24.76159245414546</v>
+        <v>25.14535676437465</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>31.41069241563669</v>
+        <v>25.14535677665205</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>2.167934833451223</v>
+        <v>25.14535672365086</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>20.02214346476877</v>
+        <v>25.14535676323909</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>27.26395924960378</v>
+        <v>25.14535677690309</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>8.887821349417809</v>
+        <v>25.14535673562631</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>28.53564507543448</v>
+        <v>25.14535677607118</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>35.68376459557228</v>
+        <v>25.14535678838334</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>31.34431156445975</v>
+        <v>25.14535678277834</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>39.90563660437264</v>
+        <v>25.14535679938268</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>44.63446148893253</v>
+        <v>25.14535680361652</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>12.81144836771663</v>
+        <v>25.14535674847818</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>32.91959158506336</v>
+        <v>25.14535679031302</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>39.9743105615385</v>
+        <v>25.14535680199817</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>8.287522327863092</v>
+        <v>25.14535665075025</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>21.30101240351578</v>
+        <v>25.14535668641119</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>27.34923835645528</v>
+        <v>25.1453566984538</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>4.878358464282627</v>
+        <v>25.14535665184262</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>20.15988929547643</v>
+        <v>25.14535669059541</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>26.36363817087932</v>
+        <v>25.14535670355858</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>9.854066274785167</v>
+        <v>25.14535665909145</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>26.53230440385219</v>
+        <v>25.14535669836186</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>32.67497511216638</v>
+        <v>25.14535671030074</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>26.88680977612768</v>
+        <v>25.14535670979151</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>32.91365177371353</v>
+        <v>25.1453567252419</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>37.50099059129377</v>
+        <v>25.14535672989028</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>12.14985450355132</v>
+        <v>25.1453566789959</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>27.07362787822322</v>
+        <v>25.14535671802939</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>34.39654652398016</v>
+        <v>25.14535672950439</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>10.4340309548996</v>
+        <v>25.14535670641449</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>27.33826295657008</v>
+        <v>25.14535674732883</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>34.74592895947811</v>
+        <v>25.14535676172312</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>3.572043068544861</v>
+        <v>25.14535670337766</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>21.77919131241682</v>
+        <v>25.14535674662093</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>30.32338476287689</v>
+        <v>25.14535676277176</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>9.650695119128507</v>
+        <v>25.14535671526705</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>30.35328242019369</v>
+        <v>25.145356759745</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>38.20232016903496</v>
+        <v>25.14535677429494</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>31.06969642971347</v>
+        <v>25.14535676783474</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>40.64323624704268</v>
+        <v>25.14535678743459</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>46.59775530470445</v>
+        <v>25.14535679286292</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>14.08884289083445</v>
+        <v>25.14535673199906</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>35.28746998651288</v>
+        <v>25.14535677815035</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>43.42272875734607</v>
+        <v>25.14535679130321</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>15.47673472209358</v>
+        <v>25.14535674546719</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>33.90284398204131</v>
+        <v>25.14535678690833</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>41.98158537920082</v>
+        <v>25.14535680102235</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>9.5745933673288</v>
+        <v>25.14535674306284</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>30.08781619041968</v>
+        <v>25.14535678701757</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>38.97405047252642</v>
+        <v>25.14535680269438</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>16.87737690349588</v>
+        <v>25.14535675687567</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>39.31537375066577</v>
+        <v>25.1453568019217</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>47.98409751071483</v>
+        <v>25.14535681610123</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>42.15608382958708</v>
+        <v>25.1453568084489</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>52.29913325378837</v>
+        <v>25.14535682728471</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>58.18129657470409</v>
+        <v>25.14535683205263</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>21.8196467803456</v>
+        <v>25.14535677039688</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>44.70964102879016</v>
+        <v>25.14535681660283</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>53.46682475825301</v>
+        <v>25.14535682979689</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>10.02420756188987</v>
+        <v>25.14535665206164</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>23.35692397804054</v>
+        <v>25.14535668594236</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>28.7191538555249</v>
+        <v>25.14535669704927</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>7.440565738878799</v>
+        <v>25.14535665294592</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>22.8203195959927</v>
+        <v>25.14535668981012</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.27166487325903</v>
+        <v>25.14535670178307</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>12.21330439010751</v>
+        <v>25.14535665959794</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>28.93888681791896</v>
+        <v>25.14535669682662</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>34.34106538948281</v>
+        <v>25.14535670780794</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>28.97994868986469</v>
+        <v>25.14535670738972</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>34.82191279202593</v>
+        <v>25.14535672176136</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>38.74263833325644</v>
+        <v>25.14535672611841</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>13.2429884440731</v>
+        <v>25.14535667746097</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>28.61037403205966</v>
+        <v>25.14535671489851</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>34.99411768501765</v>
+        <v>25.14535672564852</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>11.6767618134875</v>
+        <v>25.14535670261456</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>28.52468208600533</v>
+        <v>25.14535674136343</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>35.14471135159293</v>
+        <v>25.14535675469881</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>5.57288729123302</v>
+        <v>25.14535669948903</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>23.48293531807759</v>
+        <v>25.14535674053496</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>31.12995562206138</v>
+        <v>25.14535675555761</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>11.67463992357455</v>
+        <v>25.14535671069877</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>32.03321776179928</v>
+        <v>25.14535675277557</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>39.03932539767327</v>
+        <v>25.14535676622513</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>32.37867770285605</v>
+        <v>25.14535676035218</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>41.4165857697424</v>
+        <v>25.14535677849885</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>46.41542036918923</v>
+        <v>25.14535678356005</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>14.64197557906891</v>
+        <v>25.14535672586485</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>35.44364726459932</v>
+        <v>25.14535676986224</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>42.76649881485387</v>
+        <v>25.14535678229161</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>16.31128357603747</v>
+        <v>25.14535674022161</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>34.54058772730743</v>
+        <v>25.14535677962668</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>41.95196663624545</v>
+        <v>25.1453567926152</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>10.8726475266161</v>
+        <v>25.14535673770981</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>30.97641330446744</v>
+        <v>25.14535677957559</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>39.07215923250055</v>
+        <v>25.1453567940516</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>18.36600334103284</v>
+        <v>25.14535675088329</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>40.28750101579315</v>
+        <v>25.14535679366205</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>48.21541742774164</v>
+        <v>25.14535680668034</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>42.70623347821594</v>
+        <v>25.14535679964812</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>52.23401117546057</v>
+        <v>25.1453568171662</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>57.34610565662959</v>
+        <v>25.14535682159006</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>21.97494087416327</v>
+        <v>25.14535676295437</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>44.53273816638103</v>
+        <v>25.14535680732779</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>52.42562980938267</v>
+        <v>25.14535681960853</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>11.1993032789876</v>
+        <v>25.14535665878224</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>25.64444034498725</v>
+        <v>25.14535669578257</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>31.90816605348886</v>
+        <v>25.14535670803221</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>8.902321613339369</v>
+        <v>25.14535666103627</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>25.85308020702127</v>
+        <v>25.14535670131138</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>32.24480536832907</v>
+        <v>25.14535671448799</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>14.04233846462094</v>
+        <v>25.14535666872808</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>32.30954973732557</v>
+        <v>25.14535670945855</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>38.65623255561536</v>
+        <v>25.14535672157257</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>32.12551398662578</v>
+        <v>25.14535672003691</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>38.70101959486705</v>
+        <v>25.14535673596797</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>43.39138342086913</v>
+        <v>25.14535674060897</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>15.95910725568464</v>
+        <v>25.14535668781202</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>32.37233471907918</v>
+        <v>25.14535672822194</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>40.01575425816146</v>
+        <v>25.14535673996378</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>14.39996026241959</v>
+        <v>25.14535671632661</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>32.88329534787285</v>
+        <v>25.14535675869525</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>40.34837584007803</v>
+        <v>25.14535677330379</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>8.453036047659657</v>
+        <v>25.14535671431028</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>28.43704399115025</v>
+        <v>25.14535675914537</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>37.03520725585668</v>
+        <v>25.14535677553337</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>14.87290129719472</v>
+        <v>25.14535672682705</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>37.3019990154287</v>
+        <v>25.14535677287499</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>45.21863142147402</v>
+        <v>25.14535678761106</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>37.50979116818917</v>
+        <v>25.14535678013749</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>47.75919664257835</v>
+        <v>25.14535680031339</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>53.78218521084565</v>
+        <v>25.14535680575693</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>19.03411934407963</v>
+        <v>25.14535674276683</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>41.89746102325539</v>
+        <v>25.14535679045471</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>50.20571086108924</v>
+        <v>25.14535680385129</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>18.18065062996468</v>
+        <v>25.14535675424602</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>38.0942845803395</v>
+        <v>25.14535679708676</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>46.31649699699345</v>
+        <v>25.14535681141957</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>13.27823029439407</v>
+        <v>25.14535675282096</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>35.46849337753634</v>
+        <v>25.14535679829408</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>44.47960480712884</v>
+        <v>25.14535681421691</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>20.86020453205345</v>
+        <v>25.145356767194</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>44.92111225556179</v>
+        <v>25.14535681374366</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>53.75180675403926</v>
+        <v>25.14535682812083</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>47.38998223268533</v>
+        <v>25.14535681950387</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>58.20339650236411</v>
+        <v>25.14535683888558</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>64.18026993883072</v>
+        <v>25.14535684367942</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>25.63196269829273</v>
+        <v>25.14535678001248</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>50.09417100105473</v>
+        <v>25.14535682768611</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>59.10319769083952</v>
+        <v>25.14535684115069</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>10.29400094976902</v>
+        <v>25.14535665915558</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>23.60276945214721</v>
+        <v>25.14535669418378</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>29.70946434094013</v>
+        <v>25.14535670586831</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>7.619596704317257</v>
+        <v>25.14535666111745</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>23.26422353372499</v>
+        <v>25.14535669921641</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.55882879462211</v>
+        <v>25.14535671178303</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>12.39123414095394</v>
+        <v>25.14535666811281</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>29.41345247069503</v>
+        <v>25.14535670669962</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>35.62320434127864</v>
+        <v>25.14535671826962</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>29.42026472634707</v>
+        <v>25.14535671717085</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>35.61223790123843</v>
+        <v>25.14535673237495</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>40.31501971056761</v>
+        <v>25.14535673684669</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>14.43885118124939</v>
+        <v>25.14535668696698</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.58221471001254</v>
+        <v>25.14535672514422</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>37.0815730200175</v>
+        <v>25.14535673634108</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>14.12070024923322</v>
+        <v>25.14535671517351</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>31.4006956505918</v>
+        <v>25.14535675528849</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>38.80639872711984</v>
+        <v>25.14535676927365</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>8.041782358451741</v>
+        <v>25.14535671319776</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>26.70050676611757</v>
+        <v>25.14535675560251</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>35.26765433397492</v>
+        <v>25.14535677125924</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>13.97257511341129</v>
+        <v>25.14535672468696</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>35.10514349018325</v>
+        <v>25.14535676831205</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>42.96572226055297</v>
+        <v>25.14535678243397</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>35.4599137008107</v>
+        <v>25.14535677551267</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>45.26096400652932</v>
+        <v>25.1453567947978</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>51.34430156811695</v>
+        <v>25.14535680005329</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>18.12822624299042</v>
+        <v>25.14535674034093</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>39.65740060380779</v>
+        <v>25.14535678543479</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>47.8643397452707</v>
+        <v>25.14535679821473</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>17.93689852376271</v>
+        <v>25.1453567517552</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>36.64421037894775</v>
+        <v>25.14535679229688</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>44.76138568337927</v>
+        <v>25.14535680604358</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>12.84691512315833</v>
+        <v>25.1453567503746</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>33.68140501268765</v>
+        <v>25.14535679336468</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>42.64777148231155</v>
+        <v>25.1453568086152</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>19.91697472656916</v>
+        <v>25.14535676364561</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>42.6826064300952</v>
+        <v>25.14535680772609</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>51.41573920483867</v>
+        <v>25.14535682153271</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>45.2731980499822</v>
+        <v>25.1453568135193</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>55.63769118120244</v>
+        <v>25.14535683204007</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>61.64561022849894</v>
+        <v>25.14535683666688</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>24.71311583959227</v>
+        <v>25.14535677632391</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>47.78664258240448</v>
+        <v>25.14535682135426</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>56.68967766550035</v>
+        <v>25.14535683425319</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>7.963865840805655</v>
+        <v>25.1453566515919</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>22.34235720858709</v>
+        <v>25.14535668776033</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>28.22535483472613</v>
+        <v>25.14535669954182</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>5.49882043013648</v>
+        <v>25.14535665294397</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>22.06001918540848</v>
+        <v>25.14535669225307</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>28.09632077271573</v>
+        <v>25.14535670497182</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>10.51912653763928</v>
+        <v>25.14535666029542</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>28.53683674550415</v>
+        <v>25.14535670003612</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>34.49407266113682</v>
+        <v>25.14535671170934</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>28.68440564473237</v>
+        <v>25.14535671091411</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>35.03020152807426</v>
+        <v>25.14535672625355</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>39.33057296621028</v>
+        <v>25.14535673085219</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>11.99448673174546</v>
+        <v>25.14535667903057</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>28.49402656679827</v>
+        <v>25.14535671887915</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>35.56233048178647</v>
+        <v>25.14535673024885</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>10.79498013158111</v>
+        <v>25.14535670647189</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>28.92295383881934</v>
+        <v>25.14535674787383</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>36.06644451034027</v>
+        <v>25.14535676194508</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>4.796339117043338</v>
+        <v>25.14535670372523</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>24.13708291144248</v>
+        <v>25.14535674755915</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>32.41334893545185</v>
+        <v>25.14535676339524</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>11.15063883805272</v>
+        <v>25.14535671587658</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>33.03163628164166</v>
+        <v>25.14535676082563</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>40.62482229083669</v>
+        <v>25.14535677504509</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>33.49266479696482</v>
+        <v>25.1453567684624</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>43.24023242335969</v>
+        <v>25.14535678785319</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>48.78044890665694</v>
+        <v>25.14535679322239</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>14.68628758503792</v>
+        <v>25.14535673165728</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>37.03392821465968</v>
+        <v>25.14535677849521</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>45.02529738490749</v>
+        <v>25.14535679159739</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>14.96277697174584</v>
+        <v>25.14535674505849</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>34.49042829999045</v>
+        <v>25.14535678704661</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>42.47953856148156</v>
+        <v>25.14535680081527</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>9.70003693197069</v>
+        <v>25.14535674289617</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>31.25474843547694</v>
+        <v>25.1453567874901</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>40.03057799857009</v>
+        <v>25.14535680281425</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>17.36281678172127</v>
+        <v>25.14535675699722</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>40.83575453041242</v>
+        <v>25.1453568025714</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>49.41226710639015</v>
+        <v>25.14535681639678</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>43.5635038053232</v>
+        <v>25.14535680864395</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>53.8811944055297</v>
+        <v>25.14535682735319</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>59.45883587297516</v>
+        <v>25.14535683204559</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>21.60800384968576</v>
+        <v>25.14535676960952</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>45.72053776275024</v>
+        <v>25.14535681672066</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>54.33626240662396</v>
+        <v>25.14535682970881</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>5.283877904792103</v>
+        <v>25.14535665007217</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>17.04412140625183</v>
+        <v>25.14535668290789</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>22.54780516876256</v>
+        <v>25.14535669406929</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>2.087143224219187</v>
+        <v>25.1453566508756</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>15.93726829513606</v>
+        <v>25.14535668651869</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>21.57125337975147</v>
+        <v>25.14535669856108</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>6.403470212631944</v>
+        <v>25.14535665722641</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>21.51011355371294</v>
+        <v>25.14535669334333</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>27.09692183894624</v>
+        <v>25.14535670444123</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>22.11149862911415</v>
+        <v>25.14535670434546</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>27.60219089012963</v>
+        <v>25.14535671868117</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>31.81482255018031</v>
+        <v>25.14535672298843</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>8.359609282044211</v>
+        <v>25.14535667584077</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>21.91006180303026</v>
+        <v>25.14535671194955</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>28.56225598436733</v>
+        <v>25.14535672260606</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>8.752933818192101</v>
+        <v>25.14535670286712</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>24.22211747912344</v>
+        <v>25.14535674065977</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>31.18539312196113</v>
+        <v>25.14535675402189</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>2.515636036186429</v>
+        <v>25.14535669993517</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>19.1692007739296</v>
+        <v>25.14535673984657</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>27.19164744453143</v>
+        <v>25.14535675488068</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>7.960715074944511</v>
+        <v>25.14535671069391</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>26.9069707779022</v>
+        <v>25.14535675172673</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>34.28905286759267</v>
+        <v>25.14535676526899</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>27.78063142543449</v>
+        <v>25.14535675958207</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>36.62753195326692</v>
+        <v>25.14535677776722</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>42.14817976822237</v>
+        <v>25.14535678283232</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>11.78667871537338</v>
+        <v>25.14535672639782</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>31.35995904372028</v>
+        <v>25.14535676919036</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>38.97964944722766</v>
+        <v>25.14535678145596</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>13.05503848389266</v>
+        <v>25.14535673908466</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>29.97859932644513</v>
+        <v>25.14535677742785</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>37.53362530335041</v>
+        <v>25.14535679052041</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>7.565071530164339</v>
+        <v>25.14535673674662</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>26.39356000980719</v>
+        <v>25.14535677738423</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>34.73137294943639</v>
+        <v>25.14535679195252</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>14.10192779236989</v>
+        <v>25.14535674928504</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>34.70045402183851</v>
+        <v>25.1453567909065</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>42.80873000200712</v>
+        <v>25.14535680409076</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>37.43567468027997</v>
+        <v>25.14535679720988</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>46.80834137962501</v>
+        <v>25.14535681472294</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>52.28725216660065</v>
+        <v>25.14535681916198</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>18.3900412325866</v>
+        <v>25.14535676195345</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>39.55842188946158</v>
+        <v>25.1453568048605</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>47.76729990290357</v>
+        <v>25.14535681715724</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>9.155266402562939</v>
+        <v>25.14535665756024</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>22.26123416636409</v>
+        <v>25.14535669236063</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>28.35557718877988</v>
+        <v>25.14535670402493</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>6.326141120998855</v>
+        <v>25.14535665934798</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>21.73142075642058</v>
+        <v>25.14535669719385</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>28.03022653601848</v>
+        <v>25.145356709738</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>11.06219325472435</v>
+        <v>25.14535666628259</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>27.85047804279036</v>
+        <v>25.14535670461596</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>34.05086197684111</v>
+        <v>25.14535671617202</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>28.02758111233464</v>
+        <v>25.1453567152565</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>34.14393812206566</v>
+        <v>25.14535673041331</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>38.87096175731932</v>
+        <v>25.14535673488482</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>13.27439193832882</v>
+        <v>25.14535668528403</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>28.22707691258618</v>
+        <v>25.14535672326508</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>35.70228680310434</v>
+        <v>25.14535673441108</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>12.39002764857946</v>
+        <v>25.14535671297116</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>29.46234917207292</v>
+        <v>25.14535675284716</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>36.91231677131167</v>
+        <v>25.14535676684045</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>6.181224990531351</v>
+        <v>25.14535671084238</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>24.59117320959586</v>
+        <v>25.14535675299254</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>33.22328691344776</v>
+        <v>25.14535676865328</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>12.03715458948998</v>
+        <v>25.14535672224068</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>32.92819622533377</v>
+        <v>25.1453567655999</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>40.83438677569166</v>
+        <v>25.1453567797333</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>33.44194535861746</v>
+        <v>25.1453567729815</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>43.15995939200842</v>
+        <v>25.1453567922144</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>49.29803054520272</v>
+        <v>25.14535679747836</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>16.34242456005024</v>
+        <v>25.14535673806065</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>37.68009381907619</v>
+        <v>25.14535678293742</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>45.91777136212464</v>
+        <v>25.14535679569634</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>16.34664852922717</v>
+        <v>25.14535674954342</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>34.86074169570354</v>
+        <v>25.14535678985835</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>42.9995906095369</v>
+        <v>25.14535680360041</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>11.13154913782906</v>
+        <v>25.14535674802416</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>31.73296493146</v>
+        <v>25.14535679077605</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>40.74303218529164</v>
+        <v>25.14535680601317</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>18.12655983845138</v>
+        <v>25.1453567611973</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>40.66787747243079</v>
+        <v>25.14535680502545</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>49.42023250466963</v>
+        <v>25.14535681882816</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>43.39791291863158</v>
+        <v>25.14535681099391</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>53.67281450026076</v>
+        <v>25.1453568294597</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>59.72073105054618</v>
+        <v>25.14535683408833</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>23.06776422263511</v>
+        <v>25.14535677404112</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>45.9503194324152</v>
+        <v>25.14535681886159</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>54.87233486346754</v>
+        <v>25.14535683172668</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>12.97286026917578</v>
+        <v>25.145356663425</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>26.1699117850249</v>
+        <v>25.14535669739711</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>31.83119282976447</v>
+        <v>25.14535670862775</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>10.74010117363404</v>
+        <v>25.14535666528733</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>26.38500860136447</v>
+        <v>25.14535670238229</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>32.09923026064357</v>
+        <v>25.14535671442307</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>15.75113390897461</v>
+        <v>25.14535667231035</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>32.48146306709884</v>
+        <v>25.14535670970915</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>38.20605152874464</v>
+        <v>25.14535672083617</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>32.33932355798563</v>
+        <v>25.14535671962916</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>38.27091602909302</v>
+        <v>25.14535673414309</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>42.44305570533451</v>
+        <v>25.14535673845483</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>16.98153426873009</v>
+        <v>25.14535668975977</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>32.02667597303748</v>
+        <v>25.14535672692381</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>39.07407367960187</v>
+        <v>25.14535673786455</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>16.28240732629149</v>
+        <v>25.14535671638573</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>33.14009180250965</v>
+        <v>25.14535675528585</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>39.86577501333196</v>
+        <v>25.14535676863907</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>10.70343603576732</v>
+        <v>25.1453567142123</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>29.08012003638586</v>
+        <v>25.14535675553547</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>36.76173948786206</v>
+        <v>25.14535677049099</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>16.96340192279069</v>
+        <v>25.14535672578753</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>37.4894803428412</v>
+        <v>25.14535676808626</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>44.62252977651444</v>
+        <v>25.14535678157947</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>37.75374991730193</v>
+        <v>25.14535677493685</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>46.96001213015406</v>
+        <v>25.14535679329524</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>52.28288946884008</v>
+        <v>25.1453567983012</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>20.31847833728875</v>
+        <v>25.14535674039096</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>41.24381759427614</v>
+        <v>25.14535678428146</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>48.83937910337396</v>
+        <v>25.14535679670914</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>19.64957295253937</v>
+        <v>25.14535675176835</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>37.88893341333422</v>
+        <v>25.14535679118077</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>45.28652112675995</v>
+        <v>25.14535680425807</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>14.85851778237933</v>
+        <v>25.14535675009497</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>35.35025454152346</v>
+        <v>25.14535679208963</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>43.38965113954387</v>
+        <v>25.14535680657016</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>22.22930899822634</v>
+        <v>25.14535676344486</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>44.31072334445162</v>
+        <v>25.14535680629207</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>52.26056380155639</v>
+        <v>25.14535681941819</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>46.55529297073682</v>
+        <v>25.14535681166241</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>56.32115122074548</v>
+        <v>25.14535682934354</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>61.65560148833328</v>
+        <v>25.14535683374345</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>26.0384217312669</v>
+        <v>25.1453567750683</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>48.63129585645606</v>
+        <v>25.14535681912433</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>56.78160393256491</v>
+        <v>25.14535683151463</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>8.417492836315306</v>
+        <v>25.14535665381708</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>22.78045888178058</v>
+        <v>25.14535668981543</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>28.62687436887345</v>
+        <v>25.14535670150168</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>6.137212655843861</v>
+        <v>25.14535665536802</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>22.71696827941593</v>
+        <v>25.14535669450439</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>28.69751861813133</v>
+        <v>25.14535670710969</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>11.08415726270503</v>
+        <v>25.14535666271302</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>29.07385094717135</v>
+        <v>25.14535670226801</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>34.9990478690613</v>
+        <v>25.14535671384703</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>29.22028378161954</v>
+        <v>25.14535671298857</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>35.58529826220418</v>
+        <v>25.14535672828386</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>39.88737052834506</v>
+        <v>25.14535673282033</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>12.57971705059909</v>
+        <v>25.14535668127158</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>29.08212033268239</v>
+        <v>25.1453567209062</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>36.11851870498397</v>
+        <v>25.14535673218695</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>11.26925676761655</v>
+        <v>25.14535670861582</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>29.36838163943003</v>
+        <v>25.14535674982237</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>36.45086675506327</v>
+        <v>25.14535676378464</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>5.499577354432049</v>
+        <v>25.14535670607678</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>24.84347827349678</v>
+        <v>25.14535674970997</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>33.03851154008535</v>
+        <v>25.14535676540131</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>11.78681931615826</v>
+        <v>25.14535671820552</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>33.62560764873839</v>
+        <v>25.14535676294075</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>41.16325605775693</v>
+        <v>25.14535677705234</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>34.11604659415396</v>
+        <v>25.14535677043294</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>43.87564118428337</v>
+        <v>25.14535678978189</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>49.42683580126295</v>
+        <v>25.14535679507571</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>15.37586307135604</v>
+        <v>25.14535673382078</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>37.73845959588028</v>
+        <v>25.14535678044077</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>45.65305754017341</v>
+        <v>25.14535679339843</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>14.93014107251661</v>
+        <v>25.14535674647404</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>34.38254989482019</v>
+        <v>25.14535678822614</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>42.31670058083488</v>
+        <v>25.14535680191356</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>9.85894778824629</v>
+        <v>25.14535674448446</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>31.34708473691768</v>
+        <v>25.14535678883296</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>40.06065488344883</v>
+        <v>25.1453568040467</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>17.3922124180653</v>
+        <v>25.1453567584964</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>40.77347471001388</v>
+        <v>25.14535680381148</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>49.29784157653647</v>
+        <v>25.14535681755544</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>43.52244819991958</v>
+        <v>25.14535680979668</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>53.8569184927517</v>
+        <v>25.14535682844486</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>59.43643065008106</v>
+        <v>25.14535683308406</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>21.70090099013717</v>
+        <v>25.14535677100204</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>45.73739462160763</v>
+        <v>25.14535681783277</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>54.32192733972101</v>
+        <v>25.14535683072089</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_4/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_4/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.145</v>
+        <v>0.5570000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.394</v>
+        <v>16.218</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.322</v>
+        <v>0.755</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.339</v>
+        <v>13.912</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.04</v>
+        <v>0.927</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.992</v>
+        <v>7.163</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>25.14535665107715</v>
+        <v>2.195431015103491</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>25.14535668678</v>
+        <v>7.037557870164564</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>25.14535669883502</v>
+        <v>14.56232312619767</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>25.14535665247513</v>
+        <v>-8.018846311949101</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>25.145356691261</v>
+        <v>14.3918697146487</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>25.14535670423757</v>
+        <v>15.06449817869506</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>25.14535665959763</v>
+        <v>-3.911911994565767</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>25.14535669889976</v>
+        <v>27.12675908732895</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>25.14535671085774</v>
+        <v>30.45297994469917</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>25.14535671023412</v>
+        <v>25.0251084861861</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>25.14535672579044</v>
+        <v>28.70235881719211</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>25.14535673041913</v>
+        <v>33.04916496785118</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>25.14535667938161</v>
+        <v>1.717918209696858</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>25.14535671839791</v>
+        <v>18.34485244734464</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>25.14535672988219</v>
+        <v>21.79889244934437</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>25.14535670861315</v>
+        <v>13.47739339512167</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.14535674963011</v>
+        <v>23.92760565434288</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>25.14535676409418</v>
+        <v>40.75912047592647</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>25.14535670599225</v>
+        <v>4.205179326167812</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>25.14535674932488</v>
+        <v>20.52529883870304</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>25.14535676553592</v>
+        <v>34.82923446921836</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>25.14535671781054</v>
+        <v>4.50477275915215</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>25.14535676238017</v>
+        <v>32.12196601982313</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>25.14535677700056</v>
+        <v>54.64407202492778</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>25.14535677031554</v>
+        <v>35.64483148454498</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>25.14535679007842</v>
+        <v>52.5825655618744</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>25.14535679551602</v>
+        <v>67.68006969678257</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>25.1453567343476</v>
+        <v>12.20373937719987</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>25.14535678055692</v>
+        <v>44.20842650142228</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>25.14535679374697</v>
+        <v>58.58570283644711</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>25.14535674684258</v>
+        <v>15.10274055750475</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>25.14535678836722</v>
+        <v>32.32377190034752</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>25.14535680253543</v>
+        <v>41.88942344178895</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>25.14535674486933</v>
+        <v>5.289024568213787</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>25.14535678888469</v>
+        <v>27.22265741345163</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>25.14535680461143</v>
+        <v>36.41380842415609</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>25.14535675854878</v>
+        <v>6.136949854000811</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>25.14535680366069</v>
+        <v>44.35173998809216</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>25.14535681789861</v>
+        <v>60.35802226733367</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>25.14535681006902</v>
+        <v>54.98599050892811</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>25.1453568290496</v>
+        <v>71.77545063750328</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>25.14535683382385</v>
+        <v>83.3513263340411</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>25.14535677196963</v>
+        <v>16.71323197617285</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>25.14535681817725</v>
+        <v>58.65627997865086</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>25.14535683142386</v>
+        <v>66.69970277535282</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>25.14535665423133</v>
+        <v>9.234479653565339</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>25.14535669013876</v>
+        <v>28.88786501788264</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>25.1453567018265</v>
+        <v>38.81543025378713</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>25.14535665585437</v>
+        <v>9.565170601466317</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>25.14535669500341</v>
+        <v>38.68592241690521</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>25.14535670756566</v>
+        <v>45.65400243232467</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>25.1453566630671</v>
+        <v>11.39599408053659</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>25.14535670253513</v>
+        <v>62.04152874332817</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>25.14535671406386</v>
+        <v>66.75604797660598</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>25.14535671290265</v>
+        <v>59.49042806887402</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>25.14535672807511</v>
+        <v>70.0409767640094</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>25.14535673258603</v>
+        <v>65.63471055858169</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>25.14535668106289</v>
+        <v>9.831230427471283</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>25.14535672064482</v>
+        <v>43.58504038645717</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>25.14535673198426</v>
+        <v>52.82020487673145</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>25.14535670769654</v>
+        <v>12.32000496245928</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>25.14535674875342</v>
+        <v>33.98698079247101</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>25.14535676267738</v>
+        <v>44.18224838275829</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>25.14535670506412</v>
+        <v>4.669793671740333</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>25.1453567486249</v>
+        <v>29.8830138788578</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>25.14535676429022</v>
+        <v>41.11727120284576</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>25.14535671713842</v>
+        <v>5.207409818178455</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>25.14535676173219</v>
+        <v>47.21082724530079</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>25.14535677575299</v>
+        <v>60.63144122022933</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>25.14535676904061</v>
+        <v>48.86008601377043</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>25.14535678815634</v>
+        <v>63.29519906698796</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>25.1453567933836</v>
+        <v>68.29668465567705</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>25.14535673240431</v>
+        <v>10.20153258161252</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>25.14535677893626</v>
+        <v>53.83491523929132</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>25.14535679194897</v>
+        <v>62.34157834299957</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>25.14535674633027</v>
+        <v>12.26864637028938</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>25.14535678804125</v>
+        <v>43.26186446894226</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>25.14535680160042</v>
+        <v>52.4283982528313</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>25.14535674426817</v>
+        <v>4.590334292735871</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>25.14535678865129</v>
+        <v>37.44988112631641</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>25.14535680373968</v>
+        <v>47.92706403250773</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>25.14535675835819</v>
+        <v>7.440446783322081</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>25.14535680365216</v>
+        <v>63.41993291848695</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>25.14535681721905</v>
+        <v>79.17670731914855</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>25.14535680929358</v>
+        <v>68.41765098726177</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>25.14535682773964</v>
+        <v>84.91028823345576</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>25.14535683231809</v>
+        <v>88.58740604239361</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>25.14535677039185</v>
+        <v>9.921092054148467</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>25.14535681727812</v>
+        <v>66.95515467377663</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>25.14535683014025</v>
+        <v>74.91462421810142</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>25.14535665296549</v>
+        <v>11.33364800084023</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>25.14535668886696</v>
+        <v>25.54156664946829</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>25.14535670049325</v>
+        <v>29.9275802626105</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>25.1453566543742</v>
+        <v>9.099089209688456</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>25.14535669352919</v>
+        <v>33.72203344338609</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>25.1453567060081</v>
+        <v>35.45654369382732</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>25.14535666162054</v>
+        <v>11.5291399885207</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>25.14535670109022</v>
+        <v>55.7079000072837</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>25.14535671257259</v>
+        <v>53.7099117737565</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>25.14535671168192</v>
+        <v>46.5999007728328</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>25.14535672681217</v>
+        <v>56.86635468163385</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>25.14535673134754</v>
+        <v>54.21224928643005</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>25.14535667989417</v>
+        <v>17.01588775224628</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>25.14535671946066</v>
+        <v>38.38381030717997</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>25.14535673074652</v>
+        <v>42.45148848294893</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>25.14535670817238</v>
+        <v>18.18443344015667</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>25.14535674930513</v>
+        <v>39.90341270453064</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>25.14535676315227</v>
+        <v>45.88085300254085</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>25.14535670543837</v>
+        <v>9.757109878564162</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>25.1453567491175</v>
+        <v>35.75042899666578</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>25.14535676466833</v>
+        <v>42.67829954324117</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>25.14535671764377</v>
+        <v>10.09274932314254</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>25.14535676233556</v>
+        <v>52.83824421105608</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>25.14535677629091</v>
+        <v>61.3880454862886</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>25.14535676972912</v>
+        <v>54.42435533927539</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>25.14535678882674</v>
+        <v>66.296816279016</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>25.14535679405271</v>
+        <v>69.33285072926934</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>25.14535673302965</v>
+        <v>20.16282331843471</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>25.14535677960199</v>
+        <v>56.80939175660947</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>25.14535679256203</v>
+        <v>61.48410067273167</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>25.14535674676384</v>
+        <v>13.83254517451384</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>25.14535678853861</v>
+        <v>45.67932521909702</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>25.14535680204169</v>
+        <v>51.50969692085138</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>25.14535674458917</v>
+        <v>6.235187727522202</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>25.14535678908669</v>
+        <v>40.12156941586021</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>25.14535680407594</v>
+        <v>47.54354642201739</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>25.14535675879024</v>
+        <v>7.275102123115413</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>25.14535680417158</v>
+        <v>65.39113889852177</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>25.14535681768831</v>
+        <v>77.40487817240705</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>25.14535680990651</v>
+        <v>72.17731386672401</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>25.14535682833419</v>
+        <v>86.37136474137137</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>25.14535683291377</v>
+        <v>88.23223450040385</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>25.14535677091621</v>
+        <v>17.88187235830878</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>25.14535681785761</v>
+        <v>68.33562694078235</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>25.14535683066742</v>
+        <v>74.50228531126412</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>25.14535664926871</v>
+        <v>9.57950522344745</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>25.14535668441773</v>
+        <v>11.36624029044435</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>25.14535669621356</v>
+        <v>17.84278238895379</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>25.1453566504979</v>
+        <v>-1.862905252018685</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>25.14535668869289</v>
+        <v>17.908390678622</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>25.14535670141794</v>
+        <v>17.6532887459727</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>25.1453566573487</v>
+        <v>3.510087655732598</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>25.14535669606377</v>
+        <v>30.43586314202243</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>25.1453567077506</v>
+        <v>32.03353646163654</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>25.14535670753051</v>
+        <v>25.53799384628442</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>25.14535672281775</v>
+        <v>28.57850610602015</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>25.14535672739103</v>
+        <v>35.85833964696387</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>25.14535667750384</v>
+        <v>44.7012512486714</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>25.14535671587337</v>
+        <v>56.50967827290424</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>25.14535672713929</v>
+        <v>53.54215097888071</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>25.14535670571072</v>
+        <v>14.47332794387245</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>25.14535674606731</v>
+        <v>22.47781238149891</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>25.14535676023795</v>
+        <v>39.78343413611688</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>25.14535670281018</v>
+        <v>3.943129622911673</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>25.14535674545498</v>
+        <v>16.40255494819276</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>25.14535676135844</v>
+        <v>33.30257870847304</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>25.14535675819739</v>
+        <v>30.68858571728219</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>25.14535677251079</v>
+        <v>52.40900419190143</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>25.14535676629951</v>
+        <v>29.11052457737212</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>25.14535678570171</v>
+        <v>41.77303622411728</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>25.14535679107037</v>
+        <v>59.02097038091935</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>25.14535673111273</v>
+        <v>18.23696993011561</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>25.14535677654765</v>
+        <v>43.21068941834196</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>25.14535678948404</v>
+        <v>52.61840271999253</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>25.14535674445033</v>
+        <v>17.26780228576971</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>25.1453567852979</v>
+        <v>29.81160566026531</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>25.14535679919356</v>
+        <v>41.85531243742093</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>25.1453567421752</v>
+        <v>7.140816973929596</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>25.14535678549084</v>
+        <v>23.07119733671901</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>25.14535680094843</v>
+        <v>35.83994713928305</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>25.14535675560207</v>
+        <v>9.125239687817775</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>25.14535680001799</v>
+        <v>42.4314485083372</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>25.14535681397565</v>
+        <v>60.70508157962398</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>25.14535680656798</v>
+        <v>48.59926429173141</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>25.14535682521447</v>
+        <v>61.98212764985951</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>25.14535682992807</v>
+        <v>76.7758224724481</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>25.14535676923762</v>
+        <v>29.85683485449772</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>25.14535681468432</v>
+        <v>59.57631559358546</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>25.14535682770751</v>
+        <v>68.09235982604126</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>25.14535665712918</v>
+        <v>10.61257079919202</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>25.14535669280164</v>
+        <v>24.45068837792982</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>25.14535670456112</v>
+        <v>30.23611651339073</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>25.1453566588219</v>
+        <v>2.352598699198001</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>25.14535669762252</v>
+        <v>33.52870132082668</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>25.14535671030069</v>
+        <v>33.5325281646183</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>25.14535666605696</v>
+        <v>11.0492569804693</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>25.14535670533767</v>
+        <v>56.35925973933685</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>25.14535671697921</v>
+        <v>56.32238401799367</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>25.14535671577188</v>
+        <v>51.50975573904552</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>25.14535673115072</v>
+        <v>55.58729352803772</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>25.14535673564999</v>
+        <v>55.33818898168745</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>25.14535668494293</v>
+        <v>15.52421194033435</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>25.1453567237371</v>
+        <v>22.51783937027215</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>25.14535673498139</v>
+        <v>22.85841450091342</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>25.14535671519249</v>
+        <v>16.21204099555481</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>25.1453567560975</v>
+        <v>40.17534568428007</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>25.14535677014586</v>
+        <v>49.09915644494546</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>25.14535671286086</v>
+        <v>7.27706370002014</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>25.14535675613941</v>
+        <v>37.16808826199588</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>25.14535677191163</v>
+        <v>45.74643625611309</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>25.14535676932832</v>
+        <v>56.15581230519582</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>25.14535678351772</v>
+        <v>68.08845170316671</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>25.14535677648464</v>
+        <v>60.29056413420643</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>25.1453567959826</v>
+        <v>73.32635805832992</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>25.14535680126571</v>
+        <v>78.63991071102774</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>25.1453567406029</v>
+        <v>28.96384952690127</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>25.14535678647765</v>
+        <v>63.98717634148016</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>25.14535679932307</v>
+        <v>66.07009257342811</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>25.14535675224213</v>
+        <v>15.87545925021951</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>25.14535679356028</v>
+        <v>42.1511937841117</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>25.14535680739679</v>
+        <v>49.49958256699523</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>25.14535675044769</v>
+        <v>5.189073441169736</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>25.14535679429352</v>
+        <v>36.56125330934472</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>25.14535680969568</v>
+        <v>44.16505050969377</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>25.14535676425815</v>
+        <v>10.58104951754289</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>25.14535680917294</v>
+        <v>61.95246389453106</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>25.1453568230745</v>
+        <v>75.13227913263492</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>25.14535681490357</v>
+        <v>73.11743545895148</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>25.14535683365529</v>
+        <v>87.7457161735819</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>25.14535683831398</v>
+        <v>88.53219795989052</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>25.14535677698094</v>
+        <v>27.57335237263111</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>25.14535682280279</v>
+        <v>68.8151349852525</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>25.14535683578976</v>
+        <v>74.13114523212585</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>25.14535666527145</v>
+        <v>2.117934140481946</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>25.14535669830936</v>
+        <v>21.64118634710828</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>25.14535670892552</v>
+        <v>28.41329658242933</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>25.14535666710805</v>
+        <v>7.244485308401821</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>25.14535670319549</v>
+        <v>35.60492695967931</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>25.14535671459073</v>
+        <v>37.94858285666708</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>25.14535667378928</v>
+        <v>11.25765459922183</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>25.14535671013991</v>
+        <v>65.27969985581255</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>25.14535672060659</v>
+        <v>64.54497923333498</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>25.14535671892343</v>
+        <v>50.52371204911226</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>25.14535673283748</v>
+        <v>64.90136996955302</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>25.14535673684312</v>
+        <v>68.44349133287081</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>25.14535668955</v>
+        <v>0.8673104850557642</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>25.14535672563171</v>
+        <v>7.069181471243347</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>25.1453567358917</v>
+        <v>7.983246241186817</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>25.14535671883982</v>
+        <v>10.99785260913183</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>25.14535675680719</v>
+        <v>41.39335740253172</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>25.14535676932142</v>
+        <v>47.16737477280455</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>25.14535671686194</v>
+        <v>6.898879939436945</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>25.14535675722107</v>
+        <v>40.23767471303269</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>25.1453567712745</v>
+        <v>46.08608874432301</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>25.14535672823087</v>
+        <v>7.570528878062822</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>25.14535676949236</v>
+        <v>61.65325316134961</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>25.14535678209761</v>
+        <v>67.71402061189502</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>25.14535677538121</v>
+        <v>48.5264314116381</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>25.14535679291945</v>
+        <v>71.29612934485827</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>25.14535679757193</v>
+        <v>78.26403517686057</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>25.14535674139304</v>
+        <v>21.00220117366508</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>25.14535678417207</v>
+        <v>65.5564770012865</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>25.14535679579475</v>
+        <v>68.44940499983677</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>25.14535675285044</v>
+        <v>12.15386109549932</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>25.14535675123442</v>
+        <v>4.758362546550863</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>25.14535679218181</v>
+        <v>41.47676241220381</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>25.1453568058255</v>
+        <v>45.22137721675605</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>25.14535676435155</v>
+        <v>9.193741219339021</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>25.14535680609701</v>
+        <v>70.67325825177397</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>25.14535681837795</v>
+        <v>78.70838213298769</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>25.1453568105614</v>
+        <v>68.55489635601513</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>25.14535682748807</v>
+        <v>91.81634820371576</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>25.14535683158574</v>
+        <v>92.41064704680502</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>25.14535677466235</v>
+        <v>17.40841054764648</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>25.14535681760109</v>
+        <v>71.62709955381715</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>25.14535682920473</v>
+        <v>71.57370205609675</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>25.14535665045883</v>
+        <v>0.381773588185478</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>25.14535668302299</v>
+        <v>2.675741152190575</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>25.14535669411049</v>
+        <v>9.130777108709184</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>25.14535665136727</v>
+        <v>-7.587885604752927</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>25.14535668685473</v>
+        <v>6.829290274521023</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>25.14535669868767</v>
+        <v>7.920749700849662</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>25.14535665764446</v>
+        <v>-4.549304746019988</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>25.14535669346123</v>
+        <v>22.05177806418219</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>25.14535670446532</v>
+        <v>24.2530984079845</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>25.14535670446768</v>
+        <v>22.38379903457759</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>25.14535671855259</v>
+        <v>29.05113734535005</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>25.14535672286437</v>
+        <v>30.12545655346643</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>25.14535667571308</v>
+        <v>0.4270766345563679</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>25.14535671158859</v>
+        <v>11.96018120235281</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>25.14535672217561</v>
+        <v>14.09406634009185</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>25.14535670364474</v>
+        <v>13.51316333808712</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>25.1453567412365</v>
+        <v>23.02146455249839</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>25.14535675446805</v>
+        <v>36.06987276307211</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>25.14535670096524</v>
+        <v>0.9164898167361812</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>25.14535674084014</v>
+        <v>15.82465092718375</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>25.14535675561086</v>
+        <v>26.72911373337045</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>25.14535671179218</v>
+        <v>4.1510996798464</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>25.14535675262514</v>
+        <v>29.34253906272578</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>25.14535676599489</v>
+        <v>46.96802600489528</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>25.14535676043493</v>
+        <v>33.85196902569361</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>25.14535677831013</v>
+        <v>46.94125443481333</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>25.14535678329182</v>
+        <v>58.78811608990152</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>25.14535672700805</v>
+        <v>10.0702295774427</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>25.14535676968147</v>
+        <v>39.71911443033952</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>25.14535678185047</v>
+        <v>51.17420211389705</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>25.14535673979536</v>
+        <v>14.6350534711609</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>25.14535677802238</v>
+        <v>34.76693749835702</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>25.14535679089132</v>
+        <v>42.93631374442165</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>25.14535673772973</v>
+        <v>4.069380307850871</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>25.14535677842181</v>
+        <v>27.758199431837</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>25.14535679260469</v>
+        <v>35.82927693073892</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>25.14535675037646</v>
+        <v>8.274411244528924</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>25.14535679189378</v>
+        <v>48.84702094428787</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>25.14535680479684</v>
+        <v>62.47543272846467</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>25.14535679811034</v>
+        <v>56.29104749090054</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>25.14535681532912</v>
+        <v>69.27160808391483</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>25.14535681968029</v>
+        <v>80.96760290863978</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>25.14535676256798</v>
+        <v>14.53950006363143</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>25.14535680553531</v>
+        <v>57.94740008427883</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>25.14535681755775</v>
+        <v>68.39734390359973</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>25.14535664901813</v>
+        <v>4.394180919448221</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>25.14535668441304</v>
+        <v>2.097062016299336</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>25.14535669622258</v>
+        <v>6.71164413982199</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>25.14535665035298</v>
+        <v>-5.123252353246375</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>25.14535668885161</v>
+        <v>9.179564224647264</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>25.14535670159877</v>
+        <v>9.020347928023742</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>25.14535665715461</v>
+        <v>-0.1408484939660681</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>25.145356696126</v>
+        <v>21.40267814038575</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>25.14535670782294</v>
+        <v>20.10864889235725</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>25.14535670716262</v>
+        <v>16.37606395939837</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>25.14535672251234</v>
+        <v>18.39342465780036</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>25.14535672706023</v>
+        <v>18.62315845780306</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>25.14535667663928</v>
+        <v>2.51575684104581</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>25.14535671528238</v>
+        <v>4.243822490835843</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>25.14535672657806</v>
+        <v>4.714172606890305</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>25.1453567055847</v>
+        <v>1.772743660171272</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>25.14535674615728</v>
+        <v>5.974690751178581</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>25.14535676031995</v>
+        <v>16.92737138124726</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>25.14535670288948</v>
+        <v>-6.422270454399186</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>25.14535674581865</v>
+        <v>3.582317073802518</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>25.14535676172193</v>
+        <v>14.54052501201059</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>25.14535671442137</v>
+        <v>-4.864421171512031</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>25.14535675853045</v>
+        <v>13.8143738787727</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>25.14535677284574</v>
+        <v>27.64531385696492</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>25.14535676636087</v>
+        <v>11.40291113091044</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>25.14535678582908</v>
+        <v>26.90192753219585</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>25.14535679119871</v>
+        <v>38.63335056795263</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>25.14535673077571</v>
+        <v>-3.251513045201946</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>25.14535677641812</v>
+        <v>13.15493360132446</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>25.14535678940072</v>
+        <v>17.04650113200425</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>25.14535674373876</v>
+        <v>1.033924757699044</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>25.14535678478039</v>
+        <v>9.169953668233514</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>25.1453567987423</v>
+        <v>23.78456793421843</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>25.14535674166838</v>
+        <v>-8.637897356298847</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>25.1453567852295</v>
+        <v>4.276322201994756</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>25.14535680077252</v>
+        <v>19.09402186153543</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>25.14535675508592</v>
+        <v>-6.882954140868325</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>25.14535679969989</v>
+        <v>19.62691799577291</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>25.14535681373337</v>
+        <v>41.62933043793713</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>25.14535680604403</v>
+        <v>23.41647141056618</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>25.14535682481889</v>
+        <v>47.57389565540436</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>25.14535682954593</v>
+        <v>59.82063282318639</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>25.14535676832829</v>
+        <v>-6.636356223168526</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>25.14535681399495</v>
+        <v>14.58214436565976</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>25.14535682712417</v>
+        <v>25.77018778033079</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>25.14535666886711</v>
+        <v>5.962708046660723</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>25.14535670340102</v>
+        <v>25.61827400851314</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>25.14535671468184</v>
+        <v>38.99956660620453</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>25.14535667151414</v>
+        <v>9.600820459059186</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>25.14535670928748</v>
+        <v>40.08677447748963</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>25.14535672132716</v>
+        <v>49.11566853101351</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>25.14535667888067</v>
+        <v>10.96872858321593</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>25.14535671688078</v>
+        <v>66.88219649250101</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>25.14535672799763</v>
+        <v>72.80015661716149</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>25.14535672606375</v>
+        <v>57.37682519651776</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>25.14535674064401</v>
+        <v>63.69527775339493</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>25.14535674488517</v>
+        <v>61.88017584530635</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>25.14535669525386</v>
+        <v>17.86589869503761</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>25.14535673317441</v>
+        <v>36.14629871459901</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>25.14535674409072</v>
+        <v>62.43395225174272</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>25.14535672067947</v>
+        <v>7.665545878090152</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>25.14535676020828</v>
+        <v>30.95778771953416</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>25.1453567735017</v>
+        <v>41.61771759110155</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>25.14535671926176</v>
+        <v>-0.9768943636767027</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>25.14535676130987</v>
+        <v>26.76704854965025</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>25.14535677619335</v>
+        <v>36.81734114249682</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>25.1453567312942</v>
+        <v>-0.5785585073536943</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>25.14535677426057</v>
+        <v>46.69080141732559</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>25.14535678763542</v>
+        <v>59.34653232507493</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>25.14535678050632</v>
+        <v>42.65700551942437</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>25.14535679888839</v>
+        <v>56.18670743057729</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>25.14535680379338</v>
+        <v>61.33294131416574</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>25.14535674508002</v>
+        <v>11.30719673396675</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>25.14535678977137</v>
+        <v>50.84280838749885</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>25.14535680215078</v>
+        <v>63.55941969267907</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>25.14535675542588</v>
+        <v>7.521199628060831</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>25.14535679548652</v>
+        <v>39.05725270663305</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>25.1453568084774</v>
+        <v>48.76965452800997</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>25.14535675449043</v>
+        <v>0.9386083282129398</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>25.14535679722349</v>
+        <v>35.4954992024097</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>25.14535681159128</v>
+        <v>45.13331729771053</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>25.14535676828844</v>
+        <v>2.617259281476457</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>25.14535681182244</v>
+        <v>61.85781749643886</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>25.14535682480119</v>
+        <v>76.69608074177191</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>25.14535681658385</v>
+        <v>63.89531708375407</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>25.1453568342854</v>
+        <v>79.05899797748114</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>25.14535683860134</v>
+        <v>82.96988395238178</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>25.14535677911806</v>
+        <v>11.86730826949903</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>25.14535682402503</v>
+        <v>64.99450991547785</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>25.1453568363107</v>
+        <v>78.51350154814395</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>25.14535664352961</v>
+        <v>5.340971963565648</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>25.14535667570557</v>
+        <v>3.288324361284488</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>25.14535668659375</v>
+        <v>12.31084626121168</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>25.14535664371239</v>
+        <v>-4.510398739847876</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>25.14535667865656</v>
+        <v>2.258980707109458</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>25.14535669038479</v>
+        <v>7.656857576585342</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>25.14535664958482</v>
+        <v>-1.19867642490966</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>25.14535668492503</v>
+        <v>16.43344867991967</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>25.14535669574526</v>
+        <v>23.31033282551462</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>25.14535669618356</v>
+        <v>17.65557844251719</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>25.1453567100471</v>
+        <v>22.731910323189</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>25.14535671439238</v>
+        <v>25.62608528032143</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>25.14535666794708</v>
+        <v>1.220821224102078</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>25.14535670352143</v>
+        <v>17.32166444317583</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>25.14535671396905</v>
+        <v>16.72880584634163</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>25.14535669396454</v>
+        <v>11.44819281900134</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>25.14535673094716</v>
+        <v>13.96812762657084</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>25.14535674411774</v>
+        <v>29.98124422522383</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>25.14535669053058</v>
+        <v>-2.442343444404777</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>25.14535672965641</v>
+        <v>4.589505292754925</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>25.14535674444657</v>
+        <v>19.04279770618324</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>25.14535670078947</v>
+        <v>1.184141510759417</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>25.14535674091377</v>
+        <v>15.23030107145656</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>25.14535675425238</v>
+        <v>37.7994251860856</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>25.14535674913619</v>
+        <v>19.03898312376508</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>25.14535676672666</v>
+        <v>29.04810260515505</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>25.1453567718162</v>
+        <v>40.77246175238977</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>25.14535671643264</v>
+        <v>3.28659506550159</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>25.1453567584749</v>
+        <v>25.81707185222788</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>25.14535677067619</v>
+        <v>38.77252746700729</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>25.14535673134156</v>
+        <v>13.96610806532117</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>25.14535676902452</v>
+        <v>24.49690611455437</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>25.14535678180885</v>
+        <v>35.91925343853981</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>25.14535672857286</v>
+        <v>-0.08864081065506824</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>25.14535676857528</v>
+        <v>13.28270780095634</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>25.1453567827683</v>
+        <v>25.20115074524248</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>25.14535674074039</v>
+        <v>5.629588563183955</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>25.14535678161328</v>
+        <v>32.32317761394793</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>25.14535679446813</v>
+        <v>50.89588683227737</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>25.14535678825805</v>
+        <v>35.37138052836153</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>25.14535680525131</v>
+        <v>47.31654695039604</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>25.14535680966118</v>
+        <v>65.30211434457576</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>25.14535675337642</v>
+        <v>10.21545823393818</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>25.14535679582696</v>
+        <v>41.25769476427146</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>25.14535680780437</v>
+        <v>52.51623653900593</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>25.14535664970082</v>
+        <v>-5.068275702589933</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>25.14535668382128</v>
+        <v>-5.538510452151538</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>25.14535669481103</v>
+        <v>0.1252599498902462</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>25.14535665039431</v>
+        <v>-10.01866699981163</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>25.14535668756513</v>
+        <v>0.2666507500226594</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>25.14535669940959</v>
+        <v>3.40424069697556</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>25.145356656916</v>
+        <v>-7.355745451532837</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>25.14535669442514</v>
+        <v>16.13245172595336</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>25.14535670528354</v>
+        <v>16.29320889036469</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>25.14535670480414</v>
+        <v>6.17277629573536</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>25.1453567191886</v>
+        <v>9.508774153071107</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>25.14535672353177</v>
+        <v>16.76002513687305</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>25.14535667477279</v>
+        <v>-8.168261188276393</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>25.14535671228768</v>
+        <v>-3.693498774295165</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>25.1453567229657</v>
+        <v>-4.563183189482462</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>25.14535670516743</v>
+        <v>17.18629546082581</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>25.14535674437169</v>
+        <v>34.4437940633586</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>25.14535675750683</v>
+        <v>38.79954310503255</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>25.14535670201631</v>
+        <v>9.453325452148217</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>25.14535674361835</v>
+        <v>30.92273244950461</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>25.14535675840127</v>
+        <v>37.0740946041544</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>25.14535671344048</v>
+        <v>10.5380088366108</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>25.14535675603636</v>
+        <v>45.91569948898145</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>25.14535676928323</v>
+        <v>51.80237248648001</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>25.14535676329153</v>
+        <v>43.74651401839071</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>25.14535678146536</v>
+        <v>52.38862871366837</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>25.14535678646498</v>
+        <v>58.30440018225009</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>25.14535672840869</v>
+        <v>19.33470418981268</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>25.14535677273559</v>
+        <v>50.99827676007871</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>25.14535678501899</v>
+        <v>52.71989986749257</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>25.14535674295671</v>
+        <v>16.2230308907905</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>25.14535678277062</v>
+        <v>42.4294605643577</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>25.14535679558796</v>
+        <v>46.80144646072618</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>25.14535674028842</v>
+        <v>6.833305791664554</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>25.14535678266838</v>
+        <v>35.29328080325136</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>25.14535679695095</v>
+        <v>41.44313274780114</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>25.14535675367939</v>
+        <v>9.83260413807275</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>25.14535679693114</v>
+        <v>59.12080861753914</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>25.14535680978009</v>
+        <v>68.82915299489036</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>25.1453568025448</v>
+        <v>65.68632798214482</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>25.14535682011526</v>
+        <v>76.58079489607482</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>25.145356824497</v>
+        <v>78.42562485431452</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>25.14535676546407</v>
+        <v>18.4035459708155</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>25.14535681014613</v>
+        <v>62.86629873790199</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>25.14535682231739</v>
+        <v>65.20423136955985</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>25.14535664160182</v>
+        <v>7.709616873708452</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>25.14535667502869</v>
+        <v>8.672873918480002</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>25.14535668612139</v>
+        <v>13.29587877087799</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>25.14535664196491</v>
+        <v>-2.086409471333365</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>25.14535667838225</v>
+        <v>10.2862655274781</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>25.14535669029585</v>
+        <v>11.78445642025673</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>25.14535664808467</v>
+        <v>3.350615635734069</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>25.1453566848518</v>
+        <v>27.02207168636069</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>25.14535669582996</v>
+        <v>26.75423717723473</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>25.14535669629375</v>
+        <v>21.46964990774039</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>25.14535671057228</v>
+        <v>27.55250817746664</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>25.14535671498658</v>
+        <v>27.54830278108015</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>25.14535666702348</v>
+        <v>6.935571631218611</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>25.14535670389373</v>
+        <v>21.76858607102263</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>25.14535671465804</v>
+        <v>22.10409910994469</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>25.14535669265004</v>
+        <v>5.274503378073668</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>25.14535673099773</v>
+        <v>11.21067400873532</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>25.14535674432248</v>
+        <v>18.97577732677303</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>25.14535668900935</v>
+        <v>-9.079460570833749</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>25.14535672968483</v>
+        <v>1.729134799431829</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>25.14535674463543</v>
+        <v>10.05153458012743</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>25.14535669972381</v>
+        <v>-7.65569758831106</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>25.1453567413985</v>
+        <v>13.05869658107261</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>25.14535675484928</v>
+        <v>23.9011888860907</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>25.14535674979519</v>
+        <v>15.41377295727831</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>25.14535676783352</v>
+        <v>23.54380378991189</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>25.14535677292929</v>
+        <v>28.17128178070012</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>25.14535671590669</v>
+        <v>-3.885659484001692</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>25.14535675945126</v>
+        <v>17.73926797701301</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>25.14535677188332</v>
+        <v>23.97245457135818</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>25.14535673268424</v>
+        <v>11.66287307039919</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>25.14535677179824</v>
+        <v>28.01428154288521</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>25.14535678471225</v>
+        <v>33.08494916675829</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>25.14535672966974</v>
+        <v>-2.371668626265045</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>25.14535677129505</v>
+        <v>16.57632493795175</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>25.14535678562224</v>
+        <v>23.33310172399998</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>25.14535674253422</v>
+        <v>0.851817093258223</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>25.14535678504201</v>
+        <v>37.53132034594975</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>25.14535679798473</v>
+        <v>48.03120237827041</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>25.14535679167139</v>
+        <v>44.06821496949765</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>25.14535680908549</v>
+        <v>52.7231570920455</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>25.1453568135222</v>
+        <v>57.27394411027058</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>25.14535675540189</v>
+        <v>8.875049360653971</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>25.14535679944978</v>
+        <v>40.72276289626345</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>25.14535681168408</v>
+        <v>46.23777957856869</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>25.1453566380244</v>
+        <v>6.072033357541958</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>25.14535666979371</v>
+        <v>-0.3920667631038732</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>25.14535668028849</v>
+        <v>0.01368903318187975</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>25.14535663771034</v>
+        <v>-4.978884684647536</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>25.1453566722975</v>
+        <v>0.220929852725714</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>25.14535668360649</v>
+        <v>-1.50883789524671</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>25.14535664311003</v>
+        <v>1.289877705480716</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>25.14535667805312</v>
+        <v>13.55832840444544</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>25.14535668843844</v>
+        <v>8.42155831309155</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>25.14535668941822</v>
+        <v>3.798387945198076</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>25.14535670299361</v>
+        <v>6.759232543911907</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>25.14535670718682</v>
+        <v>6.881941661193961</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>25.1453566619297</v>
+        <v>6.354088179180076</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>25.14535669693974</v>
+        <v>12.95545664109664</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>25.14535670713479</v>
+        <v>4.735148586895864</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>25.14535668762124</v>
+        <v>4.182567915040394</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>25.14535672411067</v>
+        <v>4.364102719875262</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>25.14535673674172</v>
+        <v>7.903222229002814</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>25.1453566835008</v>
+        <v>-8.971775477184575</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>25.14535672218731</v>
+        <v>-3.815155584982531</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>25.14535673638945</v>
+        <v>2.100600847984968</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>25.14535669334527</v>
+        <v>-7.810998032768005</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>25.14535673300356</v>
+        <v>4.519724769694005</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>25.14535674575398</v>
+        <v>9.300409815761462</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>25.14535674144583</v>
+        <v>2.284357980556184</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>25.14535675860606</v>
+        <v>8.497940511558905</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>25.14535676345789</v>
+        <v>9.380678262953584</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>25.14535670943594</v>
+        <v>-5.058170472654243</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>25.14535675081515</v>
+        <v>5.836628589337209</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>25.14535676262168</v>
+        <v>6.659242920965896</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>25.14535672716665</v>
+        <v>12.78144241846621</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>25.14535676437465</v>
+        <v>21.67024590776006</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>25.14535677665205</v>
+        <v>23.81985689618877</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>25.14535672365086</v>
+        <v>-0.8834579792582922</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>25.14535676323909</v>
+        <v>10.54017230716658</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>25.14535677690309</v>
+        <v>15.54273565340602</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>25.14535673562631</v>
+        <v>1.824780500970277</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>25.14535677607118</v>
+        <v>28.59834836265755</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>25.14535678838334</v>
+        <v>34.91018109514062</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>25.14535678277834</v>
+        <v>32.61543167061446</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>25.14535679938268</v>
+        <v>40.73405643932099</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>25.14535680361652</v>
+        <v>41.51712340361685</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>25.14535674847818</v>
+        <v>15.04290428333153</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>25.14535679031302</v>
+        <v>30.99188842811666</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>25.14535680199817</v>
+        <v>32.60491350303927</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>25.14535665075025</v>
+        <v>20.17305766842893</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>25.14535668641119</v>
+        <v>28.02585508390789</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>25.1453566984538</v>
+        <v>34.70807233247638</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>25.14535665184262</v>
+        <v>3.899317178260365</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>25.14535669059541</v>
+        <v>28.47467619135367</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>25.14535670355858</v>
+        <v>28.48683839714806</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>25.14535665909145</v>
+        <v>12.87580600265872</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>25.14535669836186</v>
+        <v>46.50575069474185</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>25.14535671030074</v>
+        <v>48.91236159679696</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>25.14535670979151</v>
+        <v>40.91186319907919</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>25.1453567252419</v>
+        <v>46.36121706027545</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>25.14535672989028</v>
+        <v>48.38078353486353</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>25.1453566789959</v>
+        <v>29.25813641165452</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>25.14535671802939</v>
+        <v>53.81369356132302</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>25.14535672950439</v>
+        <v>57.33426942793163</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>25.14535670641449</v>
+        <v>14.05778797042346</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>25.14535674732883</v>
+        <v>23.23918888466585</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>25.14535676172312</v>
+        <v>34.97979252764613</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>25.14535670337766</v>
+        <v>-3.516214878370167</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>25.14535674662093</v>
+        <v>11.17506150691166</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>25.14535676277176</v>
+        <v>19.94688339768813</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>25.14535671526705</v>
+        <v>1.409851527208094</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>25.145356759745</v>
+        <v>27.44194426784108</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>25.14535677429494</v>
+        <v>43.90674531268469</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>25.14535676783474</v>
+        <v>29.10940308195227</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>25.14535678743459</v>
+        <v>40.89050527758199</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>25.14535679286292</v>
+        <v>48.47597404031531</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>25.14535673199906</v>
+        <v>13.19837217765674</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>25.14535677815035</v>
+        <v>41.06592527408974</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>25.14535679130321</v>
+        <v>49.80366582955195</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>25.14535674546719</v>
+        <v>23.17947454226509</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>25.14535678690833</v>
+        <v>37.93202547098115</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>25.14535680102235</v>
+        <v>46.83157326181673</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>25.14535674306284</v>
+        <v>6.89432909355131</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>25.14535678701757</v>
+        <v>25.60187822283242</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>25.14535680269438</v>
+        <v>33.76445666490113</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>25.14535675687567</v>
+        <v>12.12891732434562</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>25.1453568019217</v>
+        <v>47.87051632847422</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>25.14535681610123</v>
+        <v>63.02894759985723</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>25.1453568084489</v>
+        <v>57.44748124686896</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>25.14535682728471</v>
+        <v>67.40073010554372</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>25.14535683205263</v>
+        <v>75.54360251545138</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>25.14535677039688</v>
+        <v>25.00932030202653</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>25.14535681660283</v>
+        <v>58.20241870077663</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>25.14535682979689</v>
+        <v>67.86871124500152</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>25.14535665206164</v>
+        <v>17.83847316707353</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>25.14535668594236</v>
+        <v>31.47172534196738</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>25.14535669704927</v>
+        <v>38.85200743586711</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>25.14535665294592</v>
+        <v>10.881123183439</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>25.14535668981012</v>
+        <v>34.31765267086323</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>25.14535670178307</v>
+        <v>39.22200086114269</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>25.14535665959794</v>
+        <v>16.97743686859572</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>25.14535669682662</v>
+        <v>56.13253844400089</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>25.14535670780794</v>
+        <v>59.50727054333123</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>25.14535670738972</v>
+        <v>59.35342207984726</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>25.14535672176136</v>
+        <v>64.74012112401351</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>25.14535672611841</v>
+        <v>63.2789220755752</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>25.14535667746097</v>
+        <v>18.42241494657065</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>25.14535671489851</v>
+        <v>46.38909134735786</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>25.14535672564852</v>
+        <v>49.20587052326286</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>25.14535670261456</v>
+        <v>14.57496837606164</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>25.14535674136343</v>
+        <v>30.38336585073796</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>25.14535675469881</v>
+        <v>40.24077183580606</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>25.14535669948903</v>
+        <v>3.700794254525956</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>25.14535674053496</v>
+        <v>23.62795960950773</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>25.14535675555761</v>
+        <v>34.33376519950087</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>25.14535671069877</v>
+        <v>6.159298706598959</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>25.14535675277557</v>
+        <v>38.53313896470125</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>25.14535676622513</v>
+        <v>52.28851798061973</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>25.14535676035218</v>
+        <v>43.60024205184598</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>25.14535677849885</v>
+        <v>53.88176460182953</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>25.14535678356005</v>
+        <v>59.92475877299569</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>25.14535672586485</v>
+        <v>9.132721951069177</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>25.14535676986224</v>
+        <v>43.18404626051638</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>25.14535678229161</v>
+        <v>51.32355809994746</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>25.14535674022161</v>
+        <v>13.0217806207527</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>25.14535677962668</v>
+        <v>37.79199110155655</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>25.1453567926152</v>
+        <v>46.05705219489114</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>25.14535673770981</v>
+        <v>1.679727562482903</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>25.14535677957559</v>
+        <v>28.66109005211498</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>25.1453567940516</v>
+        <v>38.63347374409278</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>25.14535675088329</v>
+        <v>6.065386407473913</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>25.14535679366205</v>
+        <v>52.24975073267031</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>25.14535680668034</v>
+        <v>67.03749413058891</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>25.14535679964812</v>
+        <v>59.55305705419609</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>25.1453568171662</v>
+        <v>71.68600983260913</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>25.14535682159006</v>
+        <v>78.59978949069846</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>25.14535676295437</v>
+        <v>8.563236412450173</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>25.14535680732779</v>
+        <v>54.24188588555437</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>25.14535681960853</v>
+        <v>62.26077113522481</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>25.14535665878224</v>
+        <v>10.65055213017361</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>25.14535669578257</v>
+        <v>27.24434309677341</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>25.14535670803221</v>
+        <v>37.66155825131959</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>25.14535666103627</v>
+        <v>8.333376205936608</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>25.14535670131138</v>
+        <v>41.12815196685158</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>25.14535671448799</v>
+        <v>45.60828199302721</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>25.14535666872808</v>
+        <v>12.72314078061082</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>25.14535670945855</v>
+        <v>62.02412513621771</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>25.14535672157257</v>
+        <v>66.6263696927049</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>25.14535672003691</v>
+        <v>58.97960839524251</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>25.14535673596797</v>
+        <v>60.84784739081829</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>25.14535674060897</v>
+        <v>60.54579557255188</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>25.14535668781202</v>
+        <v>13.11708684785118</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>25.14535672822194</v>
+        <v>37.92142479871093</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>25.14535673996378</v>
+        <v>52.78961417505538</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>25.14535671632661</v>
+        <v>8.098173743785598</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>25.14535675869525</v>
+        <v>28.10890138925998</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>25.14535677330379</v>
+        <v>42.20730256500353</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>25.14535671431028</v>
+        <v>2.019658638786723</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>25.14535675914537</v>
+        <v>26.84459313938131</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>25.14535677553337</v>
+        <v>39.82388561977132</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>25.14535672682705</v>
+        <v>1.205314098023653</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>25.14535677287499</v>
+        <v>43.05628988202665</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>25.14535678761106</v>
+        <v>61.17657096107227</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>25.14535678013749</v>
+        <v>43.1399023152229</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>25.14535680031339</v>
+        <v>58.70369381797491</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>25.14535680575693</v>
+        <v>67.10566430399305</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>25.14535674276683</v>
+        <v>7.192296808920908</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>25.14535679045471</v>
+        <v>48.07968751349928</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>25.14535680385129</v>
+        <v>61.74487516689625</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>25.14535675424602</v>
+        <v>9.781659507481528</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>25.14535679708676</v>
+        <v>35.6344210658999</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>25.14535681141957</v>
+        <v>45.04120629985029</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>25.14535675282096</v>
+        <v>3.587991693522195</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>25.14535679829408</v>
+        <v>33.2392349964278</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>25.14535681421691</v>
+        <v>42.83392889639069</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>25.145356767194</v>
+        <v>3.569418420690685</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>25.14535681374366</v>
+        <v>54.64792486059081</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>25.14535682812083</v>
+        <v>70.00133757703925</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>25.14535681950387</v>
+        <v>63.6947633075837</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>25.14535683888558</v>
+        <v>79.64813272557248</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>25.14535684367942</v>
+        <v>85.38535082570677</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>25.14535678001248</v>
+        <v>10.67055597616809</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>25.14535682768611</v>
+        <v>62.00975259809533</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>25.14535684115069</v>
+        <v>71.93446040432856</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>25.14535665915558</v>
+        <v>14.80141218440547</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>25.14535669418378</v>
+        <v>26.83406178710661</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>25.14535670586831</v>
+        <v>35.24873311414342</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>25.14535666111745</v>
+        <v>16.7416789230086</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>25.14535669921641</v>
+        <v>50.6844916296758</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>25.14535671178303</v>
+        <v>51.91500460975918</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>25.14535666811281</v>
+        <v>17.72525480552999</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>25.14535670669962</v>
+        <v>60.21783096038661</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>25.14535671826962</v>
+        <v>62.72772720515248</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>25.14535671717085</v>
+        <v>56.57818079614096</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>25.14535673237495</v>
+        <v>57.31360784538293</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>25.14535673684669</v>
+        <v>57.82679920970801</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>25.14535668696698</v>
+        <v>20.44296573783321</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>25.14535672514422</v>
+        <v>38.51720183676339</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>25.14535673634108</v>
+        <v>50.50042038833347</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>25.14535671517351</v>
+        <v>19.76645489604666</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>25.14535675528849</v>
+        <v>32.71581939897995</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>25.14535676927365</v>
+        <v>42.73711320360859</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>25.14535671319776</v>
+        <v>29.5756315169353</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>25.14535675560251</v>
+        <v>47.43441738554428</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>25.14535677125924</v>
+        <v>57.86175097367405</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>25.14535672468696</v>
+        <v>14.54664786197852</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>25.14535676831205</v>
+        <v>49.06798219327784</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>25.14535678243397</v>
+        <v>62.06892088894449</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>25.14535677551267</v>
+        <v>50.04573283815623</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>25.1453567947978</v>
+        <v>59.80689599875336</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>25.14535680005329</v>
+        <v>64.50282777095192</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>25.14535674034093</v>
+        <v>22.24018166913534</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>25.14535678543479</v>
+        <v>49.92421214362258</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>25.14535679821473</v>
+        <v>60.22437282247564</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>25.1453567517552</v>
+        <v>21.49661596744086</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>25.14535679229688</v>
+        <v>39.41015971697769</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>25.14535680604358</v>
+        <v>45.81269103040707</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>25.1453567503746</v>
+        <v>31.88780307359116</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>25.14535679336468</v>
+        <v>52.88080478809167</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>25.1453568086152</v>
+        <v>60.76229780285183</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>25.14535676364561</v>
+        <v>19.27334547140753</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>25.14535680772609</v>
+        <v>62.00713084140916</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>25.14535682153271</v>
+        <v>73.15109035247595</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>25.1453568135193</v>
+        <v>71.78394384840017</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>25.14535683204007</v>
+        <v>77.5657615714386</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>25.14535683666688</v>
+        <v>85.561836081587</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>25.14535677632391</v>
+        <v>25.59803740295284</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>25.14535682135426</v>
+        <v>61.52631938408908</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>25.14535683425319</v>
+        <v>72.2467336068346</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>25.1453566515919</v>
+        <v>13.40757215538375</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>25.14535668776033</v>
+        <v>23.43868908797342</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>25.14535669954182</v>
+        <v>34.30895581298972</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>25.14535665294397</v>
+        <v>4.281721448660644</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>25.14535669225307</v>
+        <v>23.61172322945127</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>25.14535670497182</v>
+        <v>32.82651256910964</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>25.14535666029542</v>
+        <v>12.93699567801267</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>25.14535670003612</v>
+        <v>49.88901678892928</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>25.14535671170934</v>
+        <v>55.83767609579785</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>25.14535671091411</v>
+        <v>55.9541367563814</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>25.14535672625355</v>
+        <v>57.52242537500184</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>25.14535673085219</v>
+        <v>59.81351998755807</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>25.14535667903057</v>
+        <v>12.76253670851504</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>25.14535671887915</v>
+        <v>38.94475386614481</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>25.14535673024885</v>
+        <v>45.77404338430266</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>25.14535670647189</v>
+        <v>12.69646547061314</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>25.14535674787383</v>
+        <v>28.39279909282593</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>25.14535676194508</v>
+        <v>40.40336525544788</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>25.14535670372523</v>
+        <v>1.069605688904741</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>25.14535674755915</v>
+        <v>20.70671649423701</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>25.14535676339524</v>
+        <v>33.01930906519745</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>25.14535671587658</v>
+        <v>3.87728294890357</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>25.14535676082563</v>
+        <v>37.32482799702878</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>25.14535677504509</v>
+        <v>53.38465597447184</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>25.1453567684624</v>
+        <v>42.61000584807131</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>25.14535678785319</v>
+        <v>52.06830867582806</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>25.14535679322239</v>
+        <v>59.70915618731335</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>25.14535673165728</v>
+        <v>5.625686715641667</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>25.14535677849521</v>
+        <v>39.88059235603437</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>25.14535679159739</v>
+        <v>51.82617263084768</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>25.14535674505849</v>
+        <v>12.39097486030798</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>25.14535678704661</v>
+        <v>35.13352603441876</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>25.14535680081527</v>
+        <v>46.20577965068857</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>25.14535674289617</v>
+        <v>0.6309136934615083</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>25.1453567874901</v>
+        <v>25.41735954925811</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>25.14535680281425</v>
+        <v>38.19136787850044</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>25.14535675699722</v>
+        <v>5.389105813657988</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>25.1453568025714</v>
+        <v>50.28442927374009</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>25.14535681639678</v>
+        <v>68.07941982548193</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>25.14535680864395</v>
+        <v>60.72392174154209</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>25.14535682735319</v>
+        <v>72.819957364201</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>25.14535683204559</v>
+        <v>81.86107991630178</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>25.14535676960952</v>
+        <v>8.18344271356942</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>25.14535681672066</v>
+        <v>53.59477461565891</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>25.14535682970881</v>
+        <v>66.45528742496766</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>25.14535665007217</v>
+        <v>8.885156248286972</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>25.14535668290789</v>
+        <v>10.212579129063</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>25.14535669406929</v>
+        <v>18.65695411203196</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>25.1453566508756</v>
+        <v>-2.609539883406111</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>25.14535668651869</v>
+        <v>13.12224854968977</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>25.14535669856108</v>
+        <v>16.31303038656894</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>25.14535665722641</v>
+        <v>3.157206769826431</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>25.14535669334333</v>
+        <v>28.18585981813872</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>25.14535670444123</v>
+        <v>32.47200977824822</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>25.14535670434546</v>
+        <v>25.89653897206047</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>25.14535671868117</v>
+        <v>29.36972500623011</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>25.14535672298843</v>
+        <v>32.05019696497001</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>25.14535667584077</v>
+        <v>10.34689830722348</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>25.14535671194955</v>
+        <v>17.28961650541343</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>25.14535672260606</v>
+        <v>26.63458220323076</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>25.14535670286712</v>
+        <v>13.62517258817322</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>25.14535674065977</v>
+        <v>20.2456716554478</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>25.14535675402189</v>
+        <v>35.74565157037493</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>25.14535669993517</v>
+        <v>0.8756422407591131</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>25.14535673984657</v>
+        <v>12.74307149698097</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>25.14535675488068</v>
+        <v>26.77072694625517</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>25.14535671069391</v>
+        <v>3.482582266970411</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>25.14535675172673</v>
+        <v>25.3339305325863</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>25.14535676526899</v>
+        <v>45.43201429101849</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>25.14535675958207</v>
+        <v>27.09788069845032</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>25.14535677776722</v>
+        <v>38.98829618827494</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>25.14535678283232</v>
+        <v>52.44167602067397</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>25.14535672639782</v>
+        <v>7.969123555641882</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>25.14535676919036</v>
+        <v>29.10240590444503</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>25.14535678145596</v>
+        <v>47.76080982726386</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>25.14535673908466</v>
+        <v>14.00750198692775</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>25.14535677742785</v>
+        <v>26.41890990030395</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>25.14535679052041</v>
+        <v>39.52360907164589</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>25.14535673674662</v>
+        <v>0.2996107924164342</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>25.14535677738423</v>
+        <v>16.53989677419212</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>25.14535679195252</v>
+        <v>30.10043992250448</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>25.14535674928504</v>
+        <v>4.32210308948358</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>25.1453567909065</v>
+        <v>35.78443299188051</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>25.14535680409076</v>
+        <v>54.80904785070679</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>25.14535679720988</v>
+        <v>42.55223156061894</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>25.14535681472294</v>
+        <v>53.48806346799296</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>25.14535681916198</v>
+        <v>67.76054371108904</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>25.14535676195345</v>
+        <v>7.263670474035713</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>25.1453568048605</v>
+        <v>34.47042826405492</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>25.14535681715724</v>
+        <v>57.84385028254214</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>25.14535665756024</v>
+        <v>10.28669820120298</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>25.14535669236063</v>
+        <v>19.02225969273993</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>25.14535670402493</v>
+        <v>26.18813020465526</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>25.14535665934798</v>
+        <v>-0.2822520205113754</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>25.14535669719385</v>
+        <v>30.78213019789104</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>25.145356709738</v>
+        <v>30.06520316905015</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>25.14535666628259</v>
+        <v>7.133969285962962</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>25.14535670461596</v>
+        <v>43.94892042623711</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>25.14535671617202</v>
+        <v>45.93441600640278</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>25.1453567152565</v>
+        <v>37.59409447574016</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>25.14535673041331</v>
+        <v>41.64661450155188</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>25.14535673488482</v>
+        <v>44.00045117025937</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>25.14535668528403</v>
+        <v>12.9685181460932</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>25.14535672326508</v>
+        <v>35.2384288695945</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>25.14535673441108</v>
+        <v>40.58633380130243</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>25.14535671297116</v>
+        <v>12.12220400366155</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>25.14535675284716</v>
+        <v>22.86418410934752</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>25.14535676684045</v>
+        <v>34.81284355068577</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>25.14535671084238</v>
+        <v>8.208569529056817</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>25.14535675299254</v>
+        <v>25.32638764544959</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>25.14535676865328</v>
+        <v>37.0086575798247</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>25.14535672224068</v>
+        <v>2.937736316203424</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>25.1453567655999</v>
+        <v>33.21288833362185</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>25.1453567797333</v>
+        <v>48.66221899047002</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>25.1453567729815</v>
+        <v>31.63409314188691</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>25.1453567922144</v>
+        <v>43.50540530115133</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>25.14535679747836</v>
+        <v>54.28489879078987</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>25.14535673806065</v>
+        <v>8.849929929000055</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>25.14535678293742</v>
+        <v>37.88320311231701</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>25.14535679569634</v>
+        <v>48.07166810680155</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>25.14535674954342</v>
+        <v>10.52988535270912</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>25.14535678985835</v>
+        <v>25.57405787387147</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>25.14535680360041</v>
+        <v>33.4494403921697</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>25.14535674802416</v>
+        <v>7.002703768388852</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>25.14535679077605</v>
+        <v>26.87214539217546</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>25.14535680601317</v>
+        <v>35.78410937463015</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>25.1453567611973</v>
+        <v>4.028074384067335</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>25.14535680502545</v>
+        <v>41.83161492533257</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>25.14535681882816</v>
+        <v>54.66173291918169</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>25.14535681099391</v>
+        <v>47.08714605100708</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>25.1453568294597</v>
+        <v>53.60676154430065</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>25.14535683408833</v>
+        <v>67.36984706400946</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>25.14535677404112</v>
+        <v>6.734550045893609</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>25.14535681886159</v>
+        <v>42.07700800375794</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>25.14535683172668</v>
+        <v>53.82736450910691</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>25.145356663425</v>
+        <v>14.73398439553998</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>25.14535669739711</v>
+        <v>29.42593795644979</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>25.14535670862775</v>
+        <v>38.48471870085034</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>25.14535666528733</v>
+        <v>10.20062626927226</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>25.14535670238229</v>
+        <v>38.38269340404931</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>25.14535671442307</v>
+        <v>44.8305817832734</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>25.14535667231035</v>
+        <v>15.68747459950139</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>25.14535670970915</v>
+        <v>62.33683742498322</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>25.14535672083617</v>
+        <v>63.64298076115709</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>25.14535671962916</v>
+        <v>57.7884424973536</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>25.14535673414309</v>
+        <v>56.48942043781969</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>25.14535673845483</v>
+        <v>59.83737228518494</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>25.14535668975977</v>
+        <v>17.74704380015605</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>25.14535672692381</v>
+        <v>24.44048534954446</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>25.14535673786455</v>
+        <v>63.48452125735002</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>25.14535671638573</v>
+        <v>19.03806606249735</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>25.14535675528585</v>
+        <v>35.38128496996323</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>25.14535676863907</v>
+        <v>43.2714327699764</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>25.1453567142123</v>
+        <v>9.729649040405324</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>25.14535675553547</v>
+        <v>31.46235383803019</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>25.14535677049099</v>
+        <v>40.25600587486333</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>25.14535672578753</v>
+        <v>10.56967291018277</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>25.14535676808626</v>
+        <v>47.89514305294555</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>25.14535678157947</v>
+        <v>58.03572573699611</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>25.14535677493685</v>
+        <v>48.42187794187237</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>25.14535679329524</v>
+        <v>56.50117070836659</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>25.1453567983012</v>
+        <v>64.06195331100508</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>25.14535674039096</v>
+        <v>16.88047130991389</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>25.14535678428146</v>
+        <v>45.28038202866628</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>25.14535679670914</v>
+        <v>62.65697365265058</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>25.14535675176835</v>
+        <v>19.30238688340435</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>25.14535679118077</v>
+        <v>41.57506428518218</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>25.14535680425807</v>
+        <v>46.64013468941929</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>25.14535675009497</v>
+        <v>9.456603246809884</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>25.14535679208963</v>
+        <v>35.62286744462541</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>25.14535680657016</v>
+        <v>43.1433687758669</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>25.14535676344486</v>
+        <v>12.32389653444237</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>25.14535680629207</v>
+        <v>59.5371988324015</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>25.14535681941819</v>
+        <v>68.92624178577577</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>25.14535681166241</v>
+        <v>66.82551392919157</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>25.14535682934354</v>
+        <v>73.67255382371761</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>25.14535683374345</v>
+        <v>82.56569207780096</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>25.1453567750683</v>
+        <v>17.7394548409233</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>25.14535681912433</v>
+        <v>54.69928350155504</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>25.14535683151463</v>
+        <v>72.67732791330715</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>25.14535665381708</v>
+        <v>11.8908682473664</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>25.14535668981543</v>
+        <v>21.82131678997558</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>25.14535670150168</v>
+        <v>31.25362597117611</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>25.14535665536802</v>
+        <v>4.451697915063523</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>25.14535669450439</v>
+        <v>26.00466820308633</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>25.14535670710969</v>
+        <v>31.9210521955713</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>25.14535666271302</v>
+        <v>11.01577216900971</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>25.14535670226801</v>
+        <v>47.91152442466665</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>25.14535671384703</v>
+        <v>52.73304147173486</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>25.14535671298857</v>
+        <v>51.54011186217383</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>25.14535672828386</v>
+        <v>56.98655379268946</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>25.14535673282033</v>
+        <v>55.50308700837759</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>25.14535668127158</v>
+        <v>11.9845853410108</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>25.1453567209062</v>
+        <v>36.31221419703587</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>25.14535673218695</v>
+        <v>42.61125002162939</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>25.14535670861582</v>
+        <v>15.74828758502072</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>25.14535674982237</v>
+        <v>31.42980757010563</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>25.14535676378464</v>
+        <v>42.55934294113854</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>25.14535670607678</v>
+        <v>5.663483411570141</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>25.14535674970997</v>
+        <v>26.12563595231019</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>25.14535676540131</v>
+        <v>36.89276589126041</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>25.14535671820552</v>
+        <v>7.944139107546572</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>25.14535676294075</v>
+        <v>41.34570492195971</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>25.14535677705234</v>
+        <v>56.76763922377471</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>25.14535677043294</v>
+        <v>45.35412360349909</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>25.14535678978189</v>
+        <v>57.96388264916912</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>25.14535679507571</v>
+        <v>63.76868566184439</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>25.14535673382078</v>
+        <v>11.88839081696034</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>25.14535678044077</v>
+        <v>48.58798541334552</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>25.14535679339843</v>
+        <v>56.47346105410784</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>25.14535674647404</v>
+        <v>11.25139816549259</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>25.14535678822614</v>
+        <v>32.41362899497426</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>25.14535680191356</v>
+        <v>43.15233851661334</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>25.14535674448446</v>
+        <v>0.2648115962269983</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>25.14535678883296</v>
+        <v>24.56395325454686</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>25.1453568040467</v>
+        <v>36.17875156639384</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>25.1453567584964</v>
+        <v>4.214523674771151</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>25.14535680381148</v>
+        <v>47.15125020131527</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>25.14535681755544</v>
+        <v>64.84539513962734</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>25.14535680979668</v>
+        <v>56.10220942200581</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>25.14535682844486</v>
+        <v>70.82447065622874</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>25.14535683308406</v>
+        <v>78.43735244584457</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>25.14535677100204</v>
+        <v>7.806165679657944</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>25.14535681783277</v>
+        <v>51.69714034543625</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>25.14535683072089</v>
+        <v>63.13454016956504</v>
       </c>
     </row>
   </sheetData>
